--- a/PFB.xlsx
+++ b/PFB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="23020" windowHeight="13640" tabRatio="602" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="602" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mass and Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -2504,8 +2504,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -2549,14 +2549,17 @@
           <t>Empty Weight</t>
         </is>
       </c>
-      <c r="B3" s="181" t="n">
-        <v>401</v>
-      </c>
-      <c r="C3" s="129" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="D3" s="129" t="n">
-        <v>683.705</v>
+      <c r="B3" s="181">
+        <f>VLOOKUP($J$4,$K$4:$N$7,3)</f>
+        <v/>
+      </c>
+      <c r="C3" s="129">
+        <f>VLOOKUP($J$4,$K$4:$N$7,4)</f>
+        <v/>
+      </c>
+      <c r="D3" s="129">
+        <f>C3*B3</f>
+        <v/>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -2597,8 +2600,9 @@
       <c r="M4" t="n">
         <v>402</v>
       </c>
-      <c r="N4" t="n">
-        <v>1.699</v>
+      <c r="N4">
+        <f>1.337+0.362</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="16.25" customHeight="1" s="177">
@@ -2607,16 +2611,13 @@
           <t>Pilot</t>
         </is>
       </c>
-      <c r="B5" s="183" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="B5" s="183" t="inlineStr"/>
       <c r="C5" s="6" t="n">
         <v>1.8</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>153</v>
+      <c r="D5" s="6">
+        <f>B5*C5</f>
+        <v/>
       </c>
       <c r="K5" s="5" t="n">
         <v>2</v>
@@ -2629,8 +2630,9 @@
       <c r="M5" t="n">
         <v>400</v>
       </c>
-      <c r="N5" t="n">
-        <v>1.7</v>
+      <c r="N5">
+        <f>1.337+0.363</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="14.75" customHeight="1" s="177">
@@ -2639,16 +2641,13 @@
           <t>Co-Pilot</t>
         </is>
       </c>
-      <c r="B6" s="183" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="B6" s="183" t="inlineStr"/>
       <c r="C6" s="6" t="n">
         <v>1.8</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>140.4</v>
+      <c r="D6" s="6">
+        <f>B6*C6</f>
+        <v/>
       </c>
       <c r="K6" s="5" t="n">
         <v>3</v>
@@ -2661,8 +2660,9 @@
       <c r="M6" t="n">
         <v>401</v>
       </c>
-      <c r="N6" t="n">
-        <v>1.705</v>
+      <c r="N6">
+        <f>1.337+0.368</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="17.5" customHeight="1" s="177">
@@ -2671,16 +2671,13 @@
           <t>Baggage</t>
         </is>
       </c>
-      <c r="B7" s="183" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="B7" s="183" t="inlineStr"/>
       <c r="C7" s="6" t="n">
         <v>2.26</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>9.039999999999999</v>
+      <c r="D7" s="6">
+        <f>B7*C7</f>
+        <v/>
       </c>
       <c r="K7" s="5" t="n">
         <v>4</v>
@@ -2693,8 +2690,9 @@
       <c r="M7" t="n">
         <v>401</v>
       </c>
-      <c r="N7" t="n">
-        <v>1.705</v>
+      <c r="N7">
+        <f>1.337+0.368</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" s="177">
@@ -2703,14 +2701,16 @@
           <t>Usable Fuel (Fuel (liters)*ρfuel(0.72) [kg]</t>
         </is>
       </c>
-      <c r="B8" s="184" t="n">
-        <v>28.30610643440271</v>
+      <c r="B8" s="184">
+        <f>'Navigation Log'!U22*0.72</f>
+        <v/>
       </c>
       <c r="C8" s="6" t="n">
         <v>1.53</v>
       </c>
-      <c r="D8" s="125" t="n">
-        <v>43.30834284463614</v>
+      <c r="D8" s="125">
+        <f>B8*C8</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="16.75" customHeight="1" s="177">
@@ -2729,14 +2729,17 @@
           <t>Take-off Condition</t>
         </is>
       </c>
-      <c r="B10" s="185" t="n">
-        <v>596.3061064344027</v>
-      </c>
-      <c r="C10" s="186" t="n">
-        <v>1.726384036212921</v>
-      </c>
-      <c r="D10" s="185" t="n">
-        <v>1029.453342844636</v>
+      <c r="B10" s="185">
+        <f>SUM(B3,B5:B8)</f>
+        <v/>
+      </c>
+      <c r="C10" s="186">
+        <f>D10/B10</f>
+        <v/>
+      </c>
+      <c r="D10" s="185">
+        <f>SUM(D3,D5:D8)</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="16.25" customHeight="1" s="177">
@@ -2755,14 +2758,16 @@
           <t>Fuel Required (Fuel (liters)*ρfuel(0.72) [kg]</t>
         </is>
       </c>
-      <c r="B12" s="187" t="n">
-        <v>14.12184930559722</v>
+      <c r="B12" s="187">
+        <f>'Navigation Log'!U17*0.72</f>
+        <v/>
       </c>
       <c r="C12" s="6" t="n">
         <v>1.53</v>
       </c>
-      <c r="D12" s="125" t="n">
-        <v>21.60642943756375</v>
+      <c r="D12" s="125">
+        <f>B12*C12</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="32.25" customHeight="1" s="177">
@@ -2771,14 +2776,17 @@
           <t>Landing Condition</t>
         </is>
       </c>
-      <c r="B13" s="185" t="n">
-        <v>582.1842571288055</v>
-      </c>
-      <c r="C13" s="186" t="n">
-        <v>1.731147658264643</v>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>1007.846913407072</v>
+      <c r="B13" s="185">
+        <f>B10-B12</f>
+        <v/>
+      </c>
+      <c r="C13" s="186">
+        <f>D13/B13</f>
+        <v/>
+      </c>
+      <c r="D13" s="13">
+        <f>D10-D12</f>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -2797,14 +2805,16 @@
           <t>Fuel Required (Fuel (liters)*ρfuel(0.72) [kg]</t>
         </is>
       </c>
-      <c r="B15" s="187" t="n">
-        <v>4.408021124928577</v>
+      <c r="B15" s="187">
+        <f>'Navigation Log'!U18*0.72</f>
+        <v/>
       </c>
       <c r="C15" s="6" t="n">
         <v>1.53</v>
       </c>
-      <c r="D15" s="125" t="n">
-        <v>6.744272321140723</v>
+      <c r="D15" s="125">
+        <f>B15*C15</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2813,14 +2823,17 @@
           <t>Landing Condition</t>
         </is>
       </c>
-      <c r="B16" s="185" t="n">
-        <v>577.7762360038769</v>
-      </c>
-      <c r="C16" s="186" t="n">
-        <v>1.732682271617717</v>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>1001.102641085932</v>
+      <c r="B16" s="185">
+        <f>B13-B15</f>
+        <v/>
+      </c>
+      <c r="C16" s="186">
+        <f>D16/B16</f>
+        <v/>
+      </c>
+      <c r="D16" s="13">
+        <f>D13-D15</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3079,8 +3092,9 @@
           <t>Isa Dev</t>
         </is>
       </c>
-      <c r="H1" t="n">
-        <v>3.879999999999999</v>
+      <c r="H1">
+        <f>B1-(15-Performance!C13/1000*1.98)</f>
+        <v/>
       </c>
     </row>
     <row r="2">
@@ -3161,164 +3175,212 @@
       <c r="A5" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="n">
-        <v>0.7837020915791029</v>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>0.6309007212223365</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>0.5076891878439191</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>0.6229151657735776</v>
-      </c>
-      <c r="F5" s="188" t="n">
-        <v>94.07922117599404</v>
-      </c>
-      <c r="G5" s="187" t="n">
-        <v>88.98984761989763</v>
-      </c>
-      <c r="H5" s="187" t="n">
-        <v>82.33517958470497</v>
-      </c>
-      <c r="I5" s="189" t="n">
-        <v>87.70863477062886</v>
-      </c>
-      <c r="J5" s="188" t="n">
-        <v>21.13765683410513</v>
-      </c>
-      <c r="K5" s="187" t="n">
-        <v>17.00747774714996</v>
-      </c>
-      <c r="L5" s="187" t="n">
-        <v>13.67442149455393</v>
-      </c>
-      <c r="M5" s="189" t="n">
-        <v>16.79056280664536</v>
+      <c r="B5" s="25">
+        <f>_xlfn.FORECAST.LINEAR($E$1,B13:B19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="C5" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,C13:C19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="D5" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,D13:D19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="E5" s="27">
+        <f>_xlfn.FORECAST.LINEAR($H$1,B5:D5,B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F5" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,F13:F19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="G5" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,G13:G19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="H5" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,H13:H19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="I5" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,F5:H5,F4:H4)</f>
+        <v/>
+      </c>
+      <c r="J5" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,J13:J19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="K5" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,K13:K19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="L5" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,L13:L19,$A$13:$A$19)</f>
+        <v/>
+      </c>
+      <c r="M5" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,J5:L5,J4:L4)</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="n">
         <v>2000</v>
       </c>
-      <c r="B6" s="25" t="n">
-        <v>0.7469049659540565</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>0.5911570934070718</v>
-      </c>
-      <c r="D6" s="26" t="n">
-        <v>0.4794142892532658</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>0.5885277191114802</v>
-      </c>
-      <c r="F6" s="188" t="n">
-        <v>93.5724304853472</v>
-      </c>
-      <c r="G6" s="187" t="n">
-        <v>87.58064235355558</v>
-      </c>
-      <c r="H6" s="187" t="n">
-        <v>80.01393975508347</v>
-      </c>
-      <c r="I6" s="189" t="n">
-        <v>86.17888846410503</v>
-      </c>
-      <c r="J6" s="188" t="n">
-        <v>20.04413720147031</v>
-      </c>
-      <c r="K6" s="187" t="n">
-        <v>16.063085760962</v>
-      </c>
-      <c r="L6" s="187" t="n">
-        <v>12.81343224622884</v>
-      </c>
-      <c r="M6" s="189" t="n">
-        <v>15.8392994824481</v>
+      <c r="B6" s="25">
+        <f>_xlfn.FORECAST.LINEAR($E$1,B24:B30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="C6" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,C24:C30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="D6" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,D24:D30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="E6" s="27">
+        <f>_xlfn.FORECAST.LINEAR($H$1,B6:D6,B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F6" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,F24:F30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="G6" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,G24:G30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="H6" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,H24:H30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="I6" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,F6:H6,F4:H4)</f>
+        <v/>
+      </c>
+      <c r="J6" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,J24:J30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="K6" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,K24:K30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="L6" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,L24:L30,$A$24:$A$30)</f>
+        <v/>
+      </c>
+      <c r="M6" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,J6:L6,J4:L4)</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="n">
         <v>4000</v>
       </c>
-      <c r="B7" s="25" t="n">
-        <v>0.696821098720668</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>0.5486227680098517</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>0.4359621673393992</v>
-      </c>
-      <c r="E7" s="27" t="n">
-        <v>0.5435998004606508</v>
-      </c>
-      <c r="F7" s="188" t="n">
-        <v>92.8704795785729</v>
-      </c>
-      <c r="G7" s="187" t="n">
-        <v>86.92407470753233</v>
-      </c>
-      <c r="H7" s="187" t="n">
-        <v>78.12372579872753</v>
-      </c>
-      <c r="I7" s="189" t="n">
-        <v>85.01913661718092</v>
-      </c>
-      <c r="J7" s="188" t="n">
-        <v>18.83236094957925</v>
-      </c>
-      <c r="K7" s="187" t="n">
-        <v>14.92099610043102</v>
-      </c>
-      <c r="L7" s="187" t="n">
-        <v>11.83995347882603</v>
-      </c>
-      <c r="M7" s="189" t="n">
-        <v>14.74559449317006</v>
+      <c r="B7" s="25">
+        <f>_xlfn.FORECAST.LINEAR($E$1,B35:B40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="C7" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,C35:C40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="D7" s="26">
+        <f>_xlfn.FORECAST.LINEAR($E$1,D35:D40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="E7" s="27">
+        <f>_xlfn.FORECAST.LINEAR($H$1,B7:D7,B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F7" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,F35:F40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="G7" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,G35:G40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="H7" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,H35:H40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="I7" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,F7:H7,F4:H4)</f>
+        <v/>
+      </c>
+      <c r="J7" s="188">
+        <f>_xlfn.FORECAST.LINEAR($E$1,J35:J40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="K7" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,K35:K40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="L7" s="187">
+        <f>_xlfn.FORECAST.LINEAR($E$1,L35:L40,$A$35:$A$40)</f>
+        <v/>
+      </c>
+      <c r="M7" s="189">
+        <f>_xlfn.FORECAST.LINEAR($H$1,J7:L7,J4:L4)</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="n">
         <v>6000</v>
       </c>
-      <c r="B8" s="32" t="n">
-        <v>0.6587785777990467</v>
-      </c>
-      <c r="C8" s="33" t="n">
-        <v>0.5055080376759258</v>
-      </c>
-      <c r="D8" s="33" t="n">
-        <v>0.4031045659219941</v>
-      </c>
-      <c r="E8" s="34" t="n">
-        <v>0.5059301410309394</v>
-      </c>
-      <c r="F8" s="190" t="n">
-        <v>91.8171890974745</v>
-      </c>
-      <c r="G8" s="191" t="n">
-        <v>86.8171890974745</v>
-      </c>
-      <c r="H8" s="191" t="n">
-        <v>76.3845902851798</v>
-      </c>
-      <c r="I8" s="192" t="n">
-        <v>84.00834810351454</v>
-      </c>
-      <c r="J8" s="190" t="n">
-        <v>17.40661721520088</v>
-      </c>
-      <c r="K8" s="191" t="n">
-        <v>13.71591438080529</v>
-      </c>
-      <c r="L8" s="191" t="n">
-        <v>10.73356898914533</v>
-      </c>
-      <c r="M8" s="192" t="n">
-        <v>13.52050974309891</v>
+      <c r="B8" s="32">
+        <f>_xlfn.FORECAST.LINEAR($E$1,B45:B48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="C8" s="33">
+        <f>_xlfn.FORECAST.LINEAR($E$1,C45:C48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="D8" s="33">
+        <f>_xlfn.FORECAST.LINEAR($E$1,D45:D48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="E8" s="34">
+        <f>_xlfn.FORECAST.LINEAR($H$1,B8:D8,B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F8" s="190">
+        <f>_xlfn.FORECAST.LINEAR($E$1,F45:F48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="G8" s="191">
+        <f>_xlfn.FORECAST.LINEAR($E$1,G45:G48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="H8" s="191">
+        <f>_xlfn.FORECAST.LINEAR($E$1,H45:H48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="I8" s="192">
+        <f>_xlfn.FORECAST.LINEAR($H$1,F8:H8,F4:H4)</f>
+        <v/>
+      </c>
+      <c r="J8" s="190">
+        <f>_xlfn.FORECAST.LINEAR($E$1,J45:J48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="K8" s="191">
+        <f>_xlfn.FORECAST.LINEAR($E$1,K45:K48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="L8" s="191">
+        <f>_xlfn.FORECAST.LINEAR($E$1,L45:L48,$A$45:$A$48)</f>
+        <v/>
+      </c>
+      <c r="M8" s="192">
+        <f>_xlfn.FORECAST.LINEAR($H$1,J8:L8,J4:L4)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -4693,20 +4755,25 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" s="177">
       <c r="A10" s="43" t="n"/>
-      <c r="C10" s="187" t="n">
-        <v>596.3061064344027</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>672</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="F10" s="187" t="n">
-        <v>9.396926207859085</v>
-      </c>
-      <c r="G10" s="187" t="n">
-        <v>3.420201433256687</v>
+      <c r="C10" s="187">
+        <f>'Mass and Balance Sheet'!B10</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <f>'Dep 620'!G5</f>
+        <v/>
+      </c>
+      <c r="E10" s="6">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="F10" s="187">
+        <f>IF(D7="-","-",ABS($E$7*COS(RADIANS($D$7-10))))</f>
+        <v/>
+      </c>
+      <c r="G10" s="187">
+        <f>IF(D7="-","-",ABS($E$7*SIN(RADIANS($D$7-10))))</f>
+        <v/>
       </c>
       <c r="K10" s="45" t="n"/>
     </row>
@@ -4750,14 +4817,17 @@
       <c r="C13" s="6" t="n">
         <v>6000</v>
       </c>
-      <c r="F13" s="187" t="n">
-        <v>83.88966021161727</v>
-      </c>
-      <c r="G13" s="187" t="n">
-        <v>13.588412004353</v>
-      </c>
-      <c r="H13" s="187" t="n">
-        <v>294</v>
+      <c r="F13" s="187">
+        <f>_xlfn.FORECAST.LINEAR(C13,FC!I5:I8,FC!A5:A8)</f>
+        <v/>
+      </c>
+      <c r="G13" s="187">
+        <f>_xlfn.FORECAST.LINEAR(C13,FC!M5:M8,FC!A5:A8)</f>
+        <v/>
+      </c>
+      <c r="H13" s="187">
+        <f>'Dep 620'!N6</f>
+        <v/>
       </c>
       <c r="K13" s="45" t="n"/>
     </row>
@@ -4823,23 +4893,29 @@
     </row>
     <row r="17" ht="14.25" customHeight="1" s="177">
       <c r="A17" s="43" t="n"/>
-      <c r="C17" s="125" t="n">
-        <v>233.8902124803523</v>
-      </c>
-      <c r="D17" s="125" t="n">
-        <v>415.1356524803522</v>
-      </c>
-      <c r="F17" s="125" t="n">
-        <v>627.0073599999999</v>
-      </c>
-      <c r="G17" s="125" t="n">
-        <v>352.18048</v>
-      </c>
-      <c r="I17" s="125" t="n">
-        <v>122.3907289607046</v>
-      </c>
-      <c r="J17" s="125" t="n">
-        <v>288.3827289607046</v>
+      <c r="C17" s="125">
+        <f>'Dep 620'!G6</f>
+        <v/>
+      </c>
+      <c r="D17" s="125">
+        <f>'Dep 620'!G7</f>
+        <v/>
+      </c>
+      <c r="F17" s="125">
+        <f>'Dep 620'!G8</f>
+        <v/>
+      </c>
+      <c r="G17" s="125">
+        <f>'Dep 620'!N5</f>
+        <v/>
+      </c>
+      <c r="I17" s="125">
+        <f>'Dep 620'!N3</f>
+        <v/>
+      </c>
+      <c r="J17" s="125">
+        <f>'Dep 620'!N4</f>
+        <v/>
       </c>
       <c r="K17" s="45" t="n"/>
     </row>
@@ -4950,35 +5026,37 @@
     </row>
     <row r="26" ht="14" customHeight="1" s="177">
       <c r="A26" s="43" t="n"/>
-      <c r="C26" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">281103Z </t>
-        </is>
-      </c>
-      <c r="D26" s="51" t="n">
-        <v>210</v>
-      </c>
-      <c r="E26" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>CAVOK</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J26" s="6" t="n">
-        <v>1018</v>
+      <c r="C26" s="120">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D26" s="51">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E26" s="51">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F26" s="6">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G26" s="6">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H26" s="6">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I26" s="6">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J26" s="6">
+        <f>J7</f>
+        <v/>
       </c>
       <c r="K26" s="45" t="n"/>
     </row>
@@ -5022,20 +5100,25 @@
     </row>
     <row r="29">
       <c r="A29" s="43" t="n"/>
-      <c r="C29" s="187" t="n">
-        <v>582.1842571288055</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>672</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="F29" s="187" t="n">
-        <v>8.660254037844386</v>
-      </c>
-      <c r="G29" s="187" t="n">
-        <v>5.000000000000001</v>
+      <c r="C29" s="187">
+        <f>'Mass and Balance Sheet'!B13</f>
+        <v/>
+      </c>
+      <c r="D29" s="6">
+        <f>'Land 620'!G5</f>
+        <v/>
+      </c>
+      <c r="E29" s="6">
+        <f>H26</f>
+        <v/>
+      </c>
+      <c r="F29" s="187">
+        <f>ABS(E26*COS(RADIANS(D26)))</f>
+        <v/>
+      </c>
+      <c r="G29" s="187">
+        <f>ABS(E26*SIN(RADIANS(D26)))</f>
+        <v/>
       </c>
       <c r="K29" s="45" t="n"/>
     </row>
@@ -5069,14 +5152,17 @@
     </row>
     <row r="32">
       <c r="A32" s="43" t="n"/>
-      <c r="C32" s="125" t="n">
-        <v>124.5943083416872</v>
-      </c>
-      <c r="D32" s="125" t="n">
-        <v>289.3499039780507</v>
-      </c>
-      <c r="E32" s="125" t="n">
-        <v>351.8787733333334</v>
+      <c r="C32" s="125">
+        <f>'Land 620'!G6</f>
+        <v/>
+      </c>
+      <c r="D32" s="125">
+        <f>'Land 620'!G7</f>
+        <v/>
+      </c>
+      <c r="E32" s="125">
+        <f>'Land 620'!G8</f>
+        <v/>
       </c>
       <c r="K32" s="45" t="n"/>
     </row>
@@ -5193,35 +5279,37 @@
     </row>
     <row r="41">
       <c r="A41" s="43" t="n"/>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">281103Z </t>
-        </is>
-      </c>
-      <c r="D41" s="51" t="n">
-        <v>210</v>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>CAVOK</t>
-        </is>
-      </c>
-      <c r="H41" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="I41" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" s="6" t="n">
-        <v>1018</v>
+      <c r="C41" s="6">
+        <f>C7</f>
+        <v/>
+      </c>
+      <c r="D41" s="51">
+        <f>D7</f>
+        <v/>
+      </c>
+      <c r="E41" s="6">
+        <f>E7</f>
+        <v/>
+      </c>
+      <c r="F41" s="6">
+        <f>F7</f>
+        <v/>
+      </c>
+      <c r="G41" s="6">
+        <f>G7</f>
+        <v/>
+      </c>
+      <c r="H41" s="6">
+        <f>H7</f>
+        <v/>
+      </c>
+      <c r="I41" s="6">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J41" s="6">
+        <f>J7</f>
+        <v/>
       </c>
       <c r="K41" s="45" t="n"/>
     </row>
@@ -5265,22 +5353,25 @@
     </row>
     <row r="44">
       <c r="A44" s="43" t="n"/>
-      <c r="C44" s="187" t="n">
-        <v>577.7762360038769</v>
-      </c>
-      <c r="D44" s="56" t="inlineStr">
-        <is>
-          <t>255 / 501</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="F44" s="187" t="n">
-        <v>9.396926207859085</v>
-      </c>
-      <c r="G44" s="187" t="n">
-        <v>3.420201433256687</v>
+      <c r="C44" s="187">
+        <f>'Mass and Balance Sheet'!B16</f>
+        <v/>
+      </c>
+      <c r="D44" s="56">
+        <f>CONCATENATE('Alternate 620'!G5," / ",'Alternate 620'!K5)</f>
+        <v/>
+      </c>
+      <c r="E44" s="6">
+        <f>H41</f>
+        <v/>
+      </c>
+      <c r="F44" s="187">
+        <f>ABS(E41*COS(RADIANS(D41-10)))</f>
+        <v/>
+      </c>
+      <c r="G44" s="187">
+        <f>ABS(E41*SIN(RADIANS(D41-10)))</f>
+        <v/>
       </c>
       <c r="K44" s="45" t="n"/>
     </row>
@@ -5347,23 +5438,29 @@
     </row>
     <row r="48">
       <c r="A48" s="43" t="n"/>
-      <c r="C48" s="125" t="n">
-        <v>119.9387689607046</v>
-      </c>
-      <c r="D48" s="125" t="n">
-        <v>283.4287689607046</v>
-      </c>
-      <c r="E48" s="125" t="n">
-        <v>371.4292</v>
-      </c>
-      <c r="G48" s="125" t="n">
-        <v>119.9387689607046</v>
-      </c>
-      <c r="H48" s="125" t="n">
-        <v>119.9387689607046</v>
-      </c>
-      <c r="I48" s="125" t="n">
-        <v>371.4292</v>
+      <c r="C48" s="125">
+        <f>'Alternate 620'!G6</f>
+        <v/>
+      </c>
+      <c r="D48" s="125">
+        <f>'Alternate 620'!G7</f>
+        <v/>
+      </c>
+      <c r="E48" s="125">
+        <f>'Alternate 620'!G8</f>
+        <v/>
+      </c>
+      <c r="G48" s="125">
+        <f>'Alternate 620'!K6</f>
+        <v/>
+      </c>
+      <c r="H48" s="125">
+        <f>'Alternate 620'!K7</f>
+        <v/>
+      </c>
+      <c r="I48" s="125">
+        <f>'Alternate 620'!K8</f>
+        <v/>
       </c>
       <c r="K48" s="45" t="n"/>
     </row>
@@ -5422,7 +5519,7 @@
   </sheetPr>
   <dimension ref="B1:T66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -5454,8 +5551,9 @@
           <t>QNH</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>1018</v>
+      <c r="G2" s="3">
+        <f>Performance!J7</f>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -5469,11 +5567,13 @@
           <t>Headwind</t>
         </is>
       </c>
-      <c r="C3" s="193" t="n">
-        <v>9.396926207859085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-23.49231551964771</v>
+      <c r="C3" s="193">
+        <f>Performance!F10</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>IF(C3="","",C3*-2.5)</f>
+        <v/>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5485,8 +5585,9 @@
           <t>elev</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>807</v>
+      <c r="G3" s="3">
+        <f>VLOOKUP(Performance!B4,Aeródromos!A1:B40,2,FALSE())</f>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -5498,11 +5599,13 @@
           <t>Headwind</t>
         </is>
       </c>
-      <c r="J3" s="193" t="n">
-        <v>9.396926207859085</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-46.98463103929542</v>
+      <c r="J3" s="193">
+        <f>C3</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>IF(J3="","",J3*-5)</f>
+        <v/>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -5514,8 +5617,9 @@
           <t>LGR</t>
         </is>
       </c>
-      <c r="N3" s="58" t="n">
-        <v>122.3907289607046</v>
+      <c r="N3" s="58">
+        <f>N11+SUM($K$3:$K$6)</f>
+        <v/>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5530,6 +5634,10 @@
         </is>
       </c>
       <c r="C4" s="59" t="n"/>
+      <c r="D4">
+        <f>IF(C4="","",C4*10)</f>
+        <v/>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>m</t>
@@ -5540,8 +5648,9 @@
           <t>Temp</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>23</v>
+      <c r="G4" s="3">
+        <f>Performance!H7</f>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -5554,6 +5663,10 @@
         </is>
       </c>
       <c r="J4" s="59" t="n"/>
+      <c r="K4">
+        <f>IF(J4="","",J4*10)</f>
+        <v/>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>m</t>
@@ -5564,8 +5677,9 @@
           <t>LDR</t>
         </is>
       </c>
-      <c r="N4" s="58" t="n">
-        <v>288.3827289607046</v>
+      <c r="N4" s="58">
+        <f>N12+SUM($K$3:$K$6)</f>
+        <v/>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5584,8 +5698,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="D5" s="58" t="n">
-        <v>-16.428672</v>
+      <c r="D5" s="58">
+        <f>IF(C5="","",G11*-0.06)</f>
+        <v/>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5597,8 +5712,9 @@
           <t>P alt</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>672</v>
+      <c r="G5">
+        <f>IF(G3="","",G3+(1013-G2)*27)</f>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -5615,8 +5731,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="K5" s="58" t="n">
-        <v>-3.456640000000001</v>
+      <c r="K5" s="58">
+        <f>IF(J5="","",N11*-0.02)</f>
+        <v/>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -5628,8 +5745,9 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="N5" s="58" t="n">
-        <v>352.18048</v>
+      <c r="N5" s="58">
+        <f>N13</f>
+        <v/>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5646,8 +5764,9 @@
       <c r="C6" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="58" t="n">
-        <v>0</v>
+      <c r="D6" s="58">
+        <f>IF(C6="","",C6*G11*0.05)</f>
+        <v/>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5659,8 +5778,9 @@
           <t>TORR</t>
         </is>
       </c>
-      <c r="G6" s="58" t="n">
-        <v>233.8902124803523</v>
+      <c r="G6" s="58">
+        <f>G11+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -5673,7 +5793,10 @@
         </is>
       </c>
       <c r="J6" s="59" t="n"/>
-      <c r="K6" s="58" t="str"/>
+      <c r="K6" s="58">
+        <f>IF(J6="","",J6*N11*0.025)</f>
+        <v/>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>m</t>
@@ -5684,8 +5807,9 @@
           <t>Cruise Climb</t>
         </is>
       </c>
-      <c r="N6" s="58" t="n">
-        <v>294</v>
+      <c r="N6" s="58">
+        <f>N14</f>
+        <v/>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5699,8 +5823,9 @@
           <t>TODR</t>
         </is>
       </c>
-      <c r="G7" s="58" t="n">
-        <v>415.1356524803522</v>
+      <c r="G7" s="58">
+        <f>G12+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -5714,8 +5839,9 @@
           <t>ROC</t>
         </is>
       </c>
-      <c r="G8" s="58" t="n">
-        <v>627.0073599999999</v>
+      <c r="G8" s="58">
+        <f>G13</f>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -5737,8 +5863,9 @@
       <c r="F10" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>23</v>
+      <c r="G10" s="6">
+        <f>G4</f>
+        <v/>
       </c>
       <c r="I10" s="6" t="n"/>
       <c r="J10" s="6" t="n">
@@ -5753,8 +5880,9 @@
       <c r="M10" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="N10" s="6" t="n">
-        <v>23</v>
+      <c r="N10" s="6">
+        <f>G4</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -5763,40 +5891,50 @@
           <t>TORR</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>164.08</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>216.44</v>
-      </c>
-      <c r="E11" s="60" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>353.176</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>273.8112</v>
+      <c r="C11" s="6">
+        <f>FORECAST($G$5, INDEX(C18:C28,MATCH($G$5,$B$18:$B$28,1)):INDEX(C18:C28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <f>FORECAST($G$5, INDEX(D18:D28,MATCH($G$5,$B$18:$B$28,1)):INDEX(D18:D28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E11" s="60">
+        <f>FORECAST($G$5, INDEX(E18:E28,MATCH($G$5,$B$18:$B$28,1)):INDEX(E18:E28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F11" s="6">
+        <f>FORECAST($G$5, INDEX(F18:F28,MATCH($G$5,$B$18:$B$28,1)):INDEX(F18:F28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G11" s="6">
+        <f>FORECAST($G$4, INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)):INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
       <c r="I11" s="6" t="inlineStr">
         <is>
           <t>LGR</t>
         </is>
       </c>
-      <c r="J11" s="6" t="n">
-        <v>144.36</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>159.032</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>174.032</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>188.704</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>172.832</v>
+      <c r="J11" s="6">
+        <f>FORECAST($G$5, INDEX(J18:J28,MATCH($G$5,$B$18:$B$28,1)):INDEX(J18:J28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="K11" s="6">
+        <f>FORECAST($G$5, INDEX(K18:K28,MATCH($G$5,$B$18:$B$28,1)):INDEX(K18:K28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="L11" s="6">
+        <f>FORECAST($G$5, INDEX(L18:L28,MATCH($G$5,$B$18:$B$28,1)):INDEX(L18:L28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="M11" s="6">
+        <f>FORECAST($G$5, INDEX(M18:M28,MATCH($G$5,$B$18:$B$28,1)):INDEX(M18:M28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="N11" s="6">
+        <f>FORECAST($G$4, INDEX(J11:M11,MATCH($G$4,$C$10:$F$10,1)):INDEX(J11:M11,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -5805,40 +5943,50 @@
           <t>TODR</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>357.176</v>
-      </c>
-      <c r="E12" s="60" t="n">
-        <v>463.568</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>591.304</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>455.0566399999999</v>
+      <c r="C12" s="6">
+        <f>FORECAST($G$5, INDEX(C32:C42,MATCH($G$5,$B$32:$B$42,1)):INDEX(C32:C42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <f>FORECAST($G$5, INDEX(D32:D42,MATCH($G$5,$B$32:$B$42,1)):INDEX(D32:D42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E12" s="60">
+        <f>FORECAST($G$5, INDEX(E32:E42,MATCH($G$5,$B$32:$B$42,1)):INDEX(E32:E42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F12" s="6">
+        <f>FORECAST($G$5, INDEX(F32:F42,MATCH($G$5,$B$32:$B$42,1)):INDEX(F32:F42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G12" s="6">
+        <f>FORECAST($G$4, INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)):INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
           <t>LDR</t>
         </is>
       </c>
-      <c r="J12" s="6" t="n">
-        <v>284.392</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>313.064</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>341.064</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>369.736</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>338.824</v>
+      <c r="J12" s="6">
+        <f>FORECAST($G$5, INDEX(J32:J42,MATCH($G$5,$B$32:$B$42,1)):INDEX(J32:J42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="K12" s="6">
+        <f>FORECAST($G$5, INDEX(K32:K42,MATCH($G$5,$B$32:$B$42,1)):INDEX(K32:K42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="L12" s="6">
+        <f>FORECAST($G$5, INDEX(L32:L42,MATCH($G$5,$B$32:$B$42,1)):INDEX(L32:L42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="M12" s="6">
+        <f>FORECAST($G$5, INDEX(M32:M42,MATCH($G$5,$B$32:$B$42,1)):INDEX(M32:M42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="N12" s="6">
+        <f>FORECAST($G$4, INDEX(J12:M12,MATCH($G$4,$C$10:$F$10,1)):INDEX(J12:M12,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -5847,40 +5995,50 @@
           <t>ROC</t>
         </is>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>1055.52</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>820.2</v>
-      </c>
-      <c r="E13" s="60" t="n">
-        <v>610.208</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>421.216</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>627.0073599999999</v>
+      <c r="C13" s="6">
+        <f>FORECAST($G$5, INDEX(C46:C53,MATCH($G$5,$B$46:$B$53,1)):INDEX(C46:C53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <f>FORECAST($G$5, INDEX(D46:D53,MATCH($G$5,$B$46:$B$53,1)):INDEX(D46:D53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E13" s="60">
+        <f>FORECAST($G$5, INDEX(E46:E53,MATCH($G$5,$B$46:$B$53,1)):INDEX(E46:E53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F13" s="6">
+        <f>FORECAST($G$5, INDEX(F46:F53,MATCH($G$5,$B$46:$B$53,1)):INDEX(F46:F53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G13" s="6">
+        <f>FORECAST($G$4, INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)):INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
       <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="J13" s="6" t="n">
-        <v>584.072</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>456.744</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>343.088</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>240.088</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>352.18048</v>
+      <c r="J13" s="6">
+        <f>FORECAST($G$5, INDEX(J46:J53,MATCH($G$5,$I$46:$I$53,1)):INDEX(J46:J53,MATCH($G$5,$I$46:$I$53,1)+1), INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)):INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="K13" s="6">
+        <f>FORECAST($G$5, INDEX(K46:K53,MATCH($G$5,$I$46:$I$53,1)):INDEX(K46:K53,MATCH($G$5,$I$46:$I$53,1)+1), INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)):INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="L13" s="6">
+        <f>FORECAST($G$5, INDEX(L46:L53,MATCH($G$5,$I$46:$I$53,1)):INDEX(L46:L53,MATCH($G$5,$I$46:$I$53,1)+1), INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)):INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>FORECAST($G$5, INDEX(M46:M53,MATCH($G$5,$I$46:$I$53,1)):INDEX(M46:M53,MATCH($G$5,$I$46:$I$53,1)+1), INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)):INDEX($I$46:$I$53,MATCH($G$5,$I$46:$I$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="N13" s="6">
+        <f>FORECAST($G$4, INDEX(J13:M13,MATCH($G$4,$C$10:$F$10,1)):INDEX(J13:M13,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -5889,20 +6047,25 @@
           <t>Cruise</t>
         </is>
       </c>
-      <c r="J14" s="6" t="n">
-        <v>702</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>478</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>278</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>96.99999999999994</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>294</v>
+      <c r="J14" s="6">
+        <f>FORECAST(Performance!$C$13, INDEX(J59:J66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX(J59:J66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1), INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1))</f>
+        <v/>
+      </c>
+      <c r="K14" s="6">
+        <f>FORECAST(Performance!$C$13, INDEX(K59:K66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX(K59:K66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1), INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1))</f>
+        <v/>
+      </c>
+      <c r="L14" s="6">
+        <f>FORECAST(Performance!$C$13, INDEX(L59:L66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX(L59:L66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1), INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1))</f>
+        <v/>
+      </c>
+      <c r="M14" s="6">
+        <f>FORECAST(Performance!$C$13, INDEX(M59:M66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX(M59:M66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1), INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)):INDEX($I$59:$I$66,MATCH(Performance!$C$13,$I$59:$I$66,1)+1))</f>
+        <v/>
+      </c>
+      <c r="N14" s="6">
+        <f>FORECAST($G$4, INDEX(J14:M14,MATCH($G$4,$C$10:$F$10,1)):INDEX(J14:M14,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -7242,8 +7405,9 @@
           <t>QNH</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>1018</v>
+      <c r="G2" s="3">
+        <f>Performance!J7</f>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -7257,11 +7421,13 @@
           <t>Headwind</t>
         </is>
       </c>
-      <c r="C3" s="194" t="n">
-        <v>8.660254037844386</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-43.30127018922192</v>
+      <c r="C3" s="194">
+        <f>Performance!F29</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>IF(C3="","",C3*-5)</f>
+        <v/>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7273,8 +7439,9 @@
           <t>elev</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>807</v>
+      <c r="G3" s="3">
+        <f>VLOOKUP(Performance!B23,Aeródromos!A1:B40,2,FALSE())</f>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -7289,6 +7456,10 @@
         </is>
       </c>
       <c r="C4" s="59" t="n"/>
+      <c r="D4">
+        <f>IF(C4="","",C4*10)</f>
+        <v/>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>m</t>
@@ -7299,8 +7470,9 @@
           <t>Temp</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>23</v>
+      <c r="G4" s="3">
+        <f>Performance!H7</f>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -7319,8 +7491,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="D5" s="58" t="n">
-        <v>-3.426440378181818</v>
+      <c r="D5" s="58">
+        <f>IF(C5="","",G11*-0.02)</f>
+        <v/>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -7332,8 +7505,9 @@
           <t>P alt</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>672</v>
+      <c r="G5">
+        <f>IF(G3="","",G3+(1013-G2)*27)</f>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -7350,8 +7524,9 @@
       <c r="C6" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="58" t="n">
-        <v>0</v>
+      <c r="D6" s="58">
+        <f>IF(C6="","",C6*G11*0.025)</f>
+        <v/>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -7363,8 +7538,9 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="G6" s="58" t="n">
-        <v>124.5943083416872</v>
+      <c r="G6" s="58">
+        <f>G11+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7378,8 +7554,9 @@
           <t>LD</t>
         </is>
       </c>
-      <c r="G7" s="58" t="n">
-        <v>289.3499039780507</v>
+      <c r="G7" s="58">
+        <f>G12+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -7393,8 +7570,9 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="G8" s="58" t="n">
-        <v>351.8787733333334</v>
+      <c r="G8" s="58">
+        <f>G13</f>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -7416,8 +7594,9 @@
       <c r="F10" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>23</v>
+      <c r="G10" s="6">
+        <f>G4</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -7426,20 +7605,25 @@
           <t>TORR</t>
         </is>
       </c>
-      <c r="C11" s="125" t="n">
-        <v>143.4826181818182</v>
-      </c>
-      <c r="D11" s="125" t="n">
-        <v>157.6890909090909</v>
-      </c>
-      <c r="E11" s="125" t="n">
-        <v>172.5074909090909</v>
-      </c>
-      <c r="F11" s="125" t="n">
-        <v>187.0260363636363</v>
-      </c>
-      <c r="G11" s="125" t="n">
-        <v>171.3220189090909</v>
+      <c r="C11" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,C18:C28,B18:B28)</f>
+        <v/>
+      </c>
+      <c r="D11" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,D18:D28,B18:B28)</f>
+        <v/>
+      </c>
+      <c r="E11" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,E18:E28,B18:B28)</f>
+        <v/>
+      </c>
+      <c r="F11" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,F18:F28,B18:B28)</f>
+        <v/>
+      </c>
+      <c r="G11" s="125">
+        <f>FORECAST($G$4, INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)):INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -7448,20 +7632,25 @@
           <t>TODR</t>
         </is>
       </c>
-      <c r="C12" s="125" t="n">
-        <v>281.6123636363636</v>
-      </c>
-      <c r="D12" s="125" t="n">
-        <v>310.1162181818182</v>
-      </c>
-      <c r="E12" s="125" t="n">
-        <v>338.3351272727273</v>
-      </c>
-      <c r="F12" s="125" t="n">
-        <v>366.684290909091</v>
-      </c>
-      <c r="G12" s="125" t="n">
-        <v>336.0776145454545</v>
+      <c r="C12" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,C32:C42,$B$32:$B$42)</f>
+        <v/>
+      </c>
+      <c r="D12" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,D32:D42,$B$32:$B$42)</f>
+        <v/>
+      </c>
+      <c r="E12" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,E32:E42,$B$32:$B$42)</f>
+        <v/>
+      </c>
+      <c r="F12" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,F32:F42,$B$32:$B$42)</f>
+        <v/>
+      </c>
+      <c r="G12" s="125">
+        <f>FORECAST($G$4, INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)):INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -7470,20 +7659,25 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="C13" s="125" t="n">
-        <v>583.908</v>
-      </c>
-      <c r="D13" s="125" t="n">
-        <v>456.5606666666667</v>
-      </c>
-      <c r="E13" s="125" t="n">
-        <v>342.776</v>
-      </c>
-      <c r="F13" s="125" t="n">
-        <v>240.1933333333334</v>
-      </c>
-      <c r="G13" s="125" t="n">
-        <v>351.8787733333334</v>
+      <c r="C13" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,C46:C53,$B$46:$B$53)</f>
+        <v/>
+      </c>
+      <c r="D13" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,D46:D53,$B$46:$B$53)</f>
+        <v/>
+      </c>
+      <c r="E13" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,E46:E53,$B$46:$B$53)</f>
+        <v/>
+      </c>
+      <c r="F13" s="125">
+        <f>_xlfn.FORECAST.LINEAR($G$5,F46:F53,$B$46:$B$53)</f>
+        <v/>
+      </c>
+      <c r="G13" s="125">
+        <f>FORECAST($G$4, INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)):INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -8117,15 +8311,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="F1" s="138" t="inlineStr">
-        <is>
-          <t>LPSO</t>
-        </is>
-      </c>
-      <c r="J1" s="138" t="inlineStr">
-        <is>
-          <t>LPBJ</t>
-        </is>
+      <c r="F1" s="138">
+        <f>Performance!B38</f>
+        <v/>
+      </c>
+      <c r="J1" s="138">
+        <f>Performance!C38</f>
+        <v/>
       </c>
     </row>
     <row r="2">
@@ -8137,8 +8329,9 @@
           <t>QNH</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>1018</v>
+      <c r="G2" s="3">
+        <f>Performance!J41</f>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -8150,8 +8343,9 @@
           <t>QNH</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>1018</v>
+      <c r="K2" s="3">
+        <f>Performance!J41</f>
+        <v/>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -8165,11 +8359,13 @@
           <t>Headwind</t>
         </is>
       </c>
-      <c r="C3" s="194" t="n">
-        <v>9.396926207859085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-46.98463103929542</v>
+      <c r="C3" s="194">
+        <f>Performance!F44</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>IF(C3="","",C3*-5)</f>
+        <v/>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -8181,8 +8377,9 @@
           <t>elev</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>390</v>
+      <c r="G3" s="3">
+        <f>VLOOKUP(F1,Aeródromos!A1:B40,2,FALSE())</f>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -8194,8 +8391,9 @@
           <t>alt</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>636</v>
+      <c r="K3" s="3">
+        <f>VLOOKUP(J1,Aeródromos!A1:B40,2,FALSE())</f>
+        <v/>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -8210,6 +8408,10 @@
         </is>
       </c>
       <c r="C4" s="59" t="n"/>
+      <c r="D4">
+        <f>IF(C4="","",C4*10)</f>
+        <v/>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>m</t>
@@ -8220,8 +8422,9 @@
           <t>Temp</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>23</v>
+      <c r="G4" s="3">
+        <f>Performance!H41</f>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -8233,8 +8436,9 @@
           <t>Temp</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>23</v>
+      <c r="K4" s="3">
+        <f>G4</f>
+        <v/>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -8253,8 +8457,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="D5" s="58" t="n">
-        <v>-3.406600000000001</v>
+      <c r="D5" s="58">
+        <f>IF(C5="","",G11*-0.02)</f>
+        <v/>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -8266,8 +8471,9 @@
           <t>P alt</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>255</v>
+      <c r="G5">
+        <f>IF(G3="","",G3+(1013-G2)*27)</f>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -8279,8 +8485,9 @@
           <t>P alt</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>501</v>
+      <c r="K5">
+        <f>IF(K3="","",K3+(1013-K2)*27)</f>
+        <v/>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -8297,8 +8504,9 @@
       <c r="C6" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="58" t="n">
-        <v>0</v>
+      <c r="D6" s="58">
+        <f>IF(C6="","",C6*G11*0.025)</f>
+        <v/>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -8310,8 +8518,9 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="G6" s="58" t="n">
-        <v>119.9387689607046</v>
+      <c r="G6" s="58">
+        <f>G11+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -8323,8 +8532,9 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="K6" s="58" t="n">
-        <v>119.9387689607046</v>
+      <c r="K6" s="58">
+        <f>G11+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -8338,8 +8548,9 @@
           <t>LD</t>
         </is>
       </c>
-      <c r="G7" s="58" t="n">
-        <v>283.4287689607046</v>
+      <c r="G7" s="58">
+        <f>G12+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -8351,8 +8562,9 @@
           <t>LD</t>
         </is>
       </c>
-      <c r="K7" s="58" t="n">
-        <v>119.9387689607046</v>
+      <c r="K7" s="58">
+        <f>G11+SUM(D3:D6)</f>
+        <v/>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -8366,8 +8578,9 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="G8" s="58" t="n">
-        <v>371.4292</v>
+      <c r="G8" s="58">
+        <f>G13</f>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -8379,8 +8592,9 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="K8" s="58" t="n">
-        <v>371.4292</v>
+      <c r="K8" s="58">
+        <f>G13</f>
+        <v/>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -8402,8 +8616,9 @@
       <c r="F10" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>23</v>
+      <c r="G10" s="6">
+        <f>G4</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -8412,20 +8627,25 @@
           <t>TORR</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>142.275</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>156.53</v>
-      </c>
-      <c r="E11" s="60" t="n">
-        <v>171.53</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>185.785</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>170.33</v>
+      <c r="C11" s="6">
+        <f>FORECAST($G$5, INDEX(C18:C28,MATCH($G$5,$B$18:$B$28,1)):INDEX(C18:C28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <f>FORECAST($G$5, INDEX(D18:D28,MATCH($G$5,$B$18:$B$28,1)):INDEX(D18:D28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E11" s="60">
+        <f>FORECAST($G$5, INDEX(E18:E28,MATCH($G$5,$B$18:$B$28,1)):INDEX(E18:E28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F11" s="6">
+        <f>FORECAST($G$5, INDEX(F18:F28,MATCH($G$5,$B$18:$B$28,1)):INDEX(F18:F28,MATCH($G$5,$B$18:$B$28,1)+1), INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)):INDEX($B$18:$B$28,MATCH($G$5,$B$18:$B$28,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G11" s="6">
+        <f>FORECAST($G$4, INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)):INDEX(C11:F11,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -8434,20 +8654,25 @@
           <t>TODR</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>279.805</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>308.06</v>
-      </c>
-      <c r="E12" s="60" t="n">
-        <v>336.06</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>364.315</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>333.82</v>
+      <c r="C12" s="6">
+        <f>FORECAST($G$5, INDEX(C32:C42,MATCH($G$5,$B$32:$B$42,1)):INDEX(C32:C42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <f>FORECAST($G$5, INDEX(D32:D42,MATCH($G$5,$B$32:$B$42,1)):INDEX(D32:D42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E12" s="60">
+        <f>FORECAST($G$5, INDEX(E32:E42,MATCH($G$5,$B$32:$B$42,1)):INDEX(E32:E42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F12" s="6">
+        <f>FORECAST($G$5, INDEX(F32:F42,MATCH($G$5,$B$32:$B$42,1)):INDEX(F32:F42,MATCH($G$5,$B$32:$B$42,1)+1), INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)):INDEX($B$32:$B$42,MATCH($G$5,$B$32:$B$42,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G12" s="6">
+        <f>FORECAST($G$4, INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)):INDEX(C12:F12,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -8456,20 +8681,25 @@
           <t>Balked ROC</t>
         </is>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>604.505</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>476.76</v>
-      </c>
-      <c r="E13" s="60" t="n">
-        <v>362.27</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>259.27</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>371.4292</v>
+      <c r="C13" s="6">
+        <f>FORECAST($G$5, INDEX(C46:C53,MATCH($G$5,$B$46:$B$53,1)):INDEX(C46:C53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <f>FORECAST($G$5, INDEX(D46:D53,MATCH($G$5,$B$46:$B$53,1)):INDEX(D46:D53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="E13" s="60">
+        <f>FORECAST($G$5, INDEX(E46:E53,MATCH($G$5,$B$46:$B$53,1)):INDEX(E46:E53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="F13" s="6">
+        <f>FORECAST($G$5, INDEX(F46:F53,MATCH($G$5,$B$46:$B$53,1)):INDEX(F46:F53,MATCH($G$5,$B$46:$B$53,1)+1), INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)):INDEX($B$46:$B$53,MATCH($G$5,$B$46:$B$53,1)+1))</f>
+        <v/>
+      </c>
+      <c r="G13" s="6">
+        <f>FORECAST($G$4, INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)):INDEX(C13:F13,MATCH($G$4,$C$10:$F$10,1)+1), INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)):INDEX($C$10:$F$10,MATCH($G$4,$C$10:$F$10,1)+1))</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -9141,8 +9371,9 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="184" t="n">
-        <v>27.176824008706</v>
+      <c r="C4" s="184">
+        <f>Performance!$G$13*B4</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -9154,8 +9385,9 @@
       <c r="B5" t="n">
         <v>0.6</v>
       </c>
-      <c r="C5" s="184" t="n">
-        <v>8.153047202611798</v>
+      <c r="C5" s="184">
+        <f>Performance!$G$13*B5</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -9167,8 +9399,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="184" t="n">
-        <v>13.588412004353</v>
+      <c r="C6" s="184">
+        <f>Performance!$G$13*B6</f>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -9177,11 +9410,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C8" s="184" t="n">
-        <v>50.91828321567079</v>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v/>
+      </c>
+      <c r="C8" s="184">
+        <f>SUM(C3:C7)</f>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -9433,25 +9668,28 @@
       <c r="G3" s="70" t="n">
         <v>115</v>
       </c>
-      <c r="H3" s="70" t="n">
-        <v>117</v>
+      <c r="H3" s="70">
+        <f>IF(G3="","",G3+2)</f>
+        <v/>
       </c>
       <c r="I3" s="70" t="n">
         <v>119</v>
       </c>
-      <c r="J3" s="70" t="n">
-        <v>121</v>
-      </c>
-      <c r="K3" s="72" t="inlineStr">
-        <is>
-          <t>REGUENGOS</t>
-        </is>
-      </c>
-      <c r="L3" s="69" t="n">
-        <v>5500</v>
-      </c>
-      <c r="M3" s="70" t="n">
-        <v>121</v>
+      <c r="J3" s="70">
+        <f>IF(I3="","",I3+2)</f>
+        <v/>
+      </c>
+      <c r="K3" s="72">
+        <f>IF(B3="","",B3)</f>
+        <v/>
+      </c>
+      <c r="L3" s="69">
+        <f>IF(C3="","",C3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="70">
+        <f>IF(J3="","",J3)</f>
+        <v/>
       </c>
       <c r="N3" s="69" t="n">
         <v>74</v>
@@ -9459,46 +9697,55 @@
       <c r="O3" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="P3" s="73" t="n">
-        <v>11.35135135135135</v>
+      <c r="P3" s="73">
+        <f>IF(N3="","",O3/N3*60)</f>
+        <v/>
       </c>
       <c r="Q3" s="74" t="n"/>
       <c r="R3" s="199" t="n"/>
       <c r="S3" s="75" t="n"/>
-      <c r="T3" s="200" t="n">
-        <v>2.570780649472189</v>
+      <c r="T3" s="200">
+        <f>IF(P3="","",Performance!$G$13/60*P3)</f>
+        <v/>
       </c>
       <c r="U3" s="201" t="n"/>
-      <c r="W3" s="202" t="n">
-        <v>2.466666666666666</v>
-      </c>
-      <c r="X3" s="202" t="n">
-        <v>4.933333333333333</v>
-      </c>
-      <c r="Y3" s="202" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="Z3" s="202" t="n">
-        <v>9.866666666666665</v>
-      </c>
-      <c r="AA3" s="202" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="AB3" s="202" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="AC3" s="202" t="n">
-        <v>17.26666666666667</v>
-      </c>
-      <c r="AD3" s="202" t="n">
-        <v>19.73333333333333</v>
+      <c r="W3" s="202">
+        <f>O3/P3*$W$2</f>
+        <v/>
+      </c>
+      <c r="X3" s="202">
+        <f>$W3*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y3" s="202">
+        <f>$W3*Y2/2</f>
+        <v/>
+      </c>
+      <c r="Z3" s="202">
+        <f>$W3*Z2/2</f>
+        <v/>
+      </c>
+      <c r="AA3" s="202">
+        <f>$W3*AA2/2</f>
+        <v/>
+      </c>
+      <c r="AB3" s="202">
+        <f>$W3*AB2/2</f>
+        <v/>
+      </c>
+      <c r="AC3" s="202">
+        <f>$W3*AC2/2</f>
+        <v/>
+      </c>
+      <c r="AD3" s="202">
+        <f>$W3*AD2/2</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="177" thickTop="1">
-      <c r="A4" s="78" t="inlineStr">
-        <is>
-          <t>REGUENGOS</t>
-        </is>
+      <c r="A4" s="78">
+        <f>IF(B4="","",B3)</f>
+        <v/>
       </c>
       <c r="B4" s="79" t="inlineStr">
         <is>
@@ -9518,23 +9765,28 @@
       <c r="G4" s="81" t="n">
         <v>105</v>
       </c>
-      <c r="H4" s="81" t="n">
-        <v>107</v>
+      <c r="H4" s="81">
+        <f>IF(G4="","",G4+2)</f>
+        <v/>
       </c>
       <c r="I4" s="81" t="n">
         <v>115</v>
       </c>
-      <c r="J4" s="81" t="n">
-        <v>117</v>
-      </c>
-      <c r="K4" s="83" t="inlineStr">
-        <is>
-          <t>MOURÃO</t>
-        </is>
-      </c>
-      <c r="L4" s="80" t="str"/>
-      <c r="M4" s="81" t="n">
-        <v>117</v>
+      <c r="J4" s="81">
+        <f>IF(I4="","",I4+2)</f>
+        <v/>
+      </c>
+      <c r="K4" s="83">
+        <f>IF(B4="","",B4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="80">
+        <f>IF(C4="","",C4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="81">
+        <f>IF(J4="","",J4)</f>
+        <v/>
       </c>
       <c r="N4" s="80" t="n">
         <v>92</v>
@@ -9542,48 +9794,58 @@
       <c r="O4" s="80" t="n">
         <v>10</v>
       </c>
-      <c r="P4" s="84" t="n">
-        <v>6.521739130434782</v>
+      <c r="P4" s="84">
+        <f>IF(N4="","",O4/N4*60)</f>
+        <v/>
       </c>
       <c r="Q4" s="85" t="n"/>
       <c r="R4" s="86" t="n"/>
       <c r="S4" s="87" t="n"/>
-      <c r="T4" s="202" t="n">
-        <v>1.477001304820978</v>
-      </c>
-      <c r="U4" s="200" t="n">
-        <v>35.26625476015504</v>
-      </c>
-      <c r="W4" s="202" t="n">
-        <v>3.066666666666667</v>
-      </c>
-      <c r="X4" s="202" t="n">
-        <v>6.133333333333334</v>
-      </c>
-      <c r="Y4" s="202" t="n">
-        <v>9.200000000000001</v>
-      </c>
-      <c r="Z4" s="202" t="n">
-        <v>12.26666666666667</v>
-      </c>
-      <c r="AA4" s="202" t="n">
-        <v>15.33333333333333</v>
-      </c>
-      <c r="AB4" s="202" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="AC4" s="202" t="n">
-        <v>21.46666666666667</v>
-      </c>
-      <c r="AD4" s="202" t="n">
-        <v>24.53333333333333</v>
+      <c r="T4" s="202">
+        <f>IF(P4="","",Performance!$G$13/60*P4)</f>
+        <v/>
+      </c>
+      <c r="U4" s="200">
+        <f>IF(T4="","",$U$22-SUM($T$3:T4))</f>
+        <v/>
+      </c>
+      <c r="W4" s="202">
+        <f>O4/P4*$W$2</f>
+        <v/>
+      </c>
+      <c r="X4" s="202">
+        <f>$W4*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y4" s="202">
+        <f>$W4*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z4" s="202">
+        <f>$W4*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA4" s="202">
+        <f>$W4*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB4" s="202">
+        <f>$W4*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC4" s="202">
+        <f>$W4*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD4" s="202">
+        <f>$W4*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" s="177">
-      <c r="A5" s="78" t="inlineStr">
-        <is>
-          <t>MOURÃO</t>
-        </is>
+      <c r="A5" s="78">
+        <f>IF(B5="","",B4)</f>
+        <v/>
       </c>
       <c r="B5" s="79" t="inlineStr">
         <is>
@@ -9603,23 +9865,28 @@
       <c r="G5" s="81" t="n">
         <v>223</v>
       </c>
-      <c r="H5" s="81" t="n">
-        <v>225</v>
+      <c r="H5" s="81">
+        <f>IF(G5="","",G5+2)</f>
+        <v/>
       </c>
       <c r="I5" s="81" t="n">
         <v>224</v>
       </c>
-      <c r="J5" s="81" t="n">
-        <v>226</v>
-      </c>
-      <c r="K5" s="83" t="inlineStr">
-        <is>
-          <t>ALQUEVA</t>
-        </is>
-      </c>
-      <c r="L5" s="80" t="str"/>
-      <c r="M5" s="81" t="n">
-        <v>226</v>
+      <c r="J5" s="81">
+        <f>IF(I5="","",I5+2)</f>
+        <v/>
+      </c>
+      <c r="K5" s="83">
+        <f>IF(B5="","",B5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="80">
+        <f>IF(C5="","",C5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="81">
+        <f>IF(J5="","",J5)</f>
+        <v/>
       </c>
       <c r="N5" s="80" t="n">
         <v>68</v>
@@ -9627,48 +9894,58 @@
       <c r="O5" s="80" t="n">
         <v>14</v>
       </c>
-      <c r="P5" s="84" t="n">
-        <v>12.35294117647059</v>
+      <c r="P5" s="84">
+        <f>IF(N5="","",O5/N5*60)</f>
+        <v/>
       </c>
       <c r="Q5" s="87" t="n"/>
       <c r="R5" s="87" t="n"/>
       <c r="S5" s="87" t="n"/>
-      <c r="T5" s="202" t="n">
-        <v>2.797614236190323</v>
-      </c>
-      <c r="U5" s="203" t="n">
-        <v>32.46864052396472</v>
-      </c>
-      <c r="W5" s="202" t="n">
-        <v>2.266666666666667</v>
-      </c>
-      <c r="X5" s="202" t="n">
-        <v>4.533333333333334</v>
-      </c>
-      <c r="Y5" s="202" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="Z5" s="202" t="n">
-        <v>9.066666666666668</v>
-      </c>
-      <c r="AA5" s="202" t="n">
-        <v>11.33333333333334</v>
-      </c>
-      <c r="AB5" s="202" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="AC5" s="202" t="n">
-        <v>15.86666666666667</v>
-      </c>
-      <c r="AD5" s="202" t="n">
-        <v>18.13333333333334</v>
+      <c r="T5" s="202">
+        <f>IF(P5="","",Performance!$G$13/60*P5)</f>
+        <v/>
+      </c>
+      <c r="U5" s="203">
+        <f>IF(T5="","",$U$22-SUM($T$3:T5))</f>
+        <v/>
+      </c>
+      <c r="W5" s="202">
+        <f>O5/P5*$W$2</f>
+        <v/>
+      </c>
+      <c r="X5" s="202">
+        <f>$W5*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y5" s="202">
+        <f>$W5*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z5" s="202">
+        <f>$W5*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA5" s="202">
+        <f>$W5*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB5" s="202">
+        <f>$W5*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC5" s="202">
+        <f>$W5*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD5" s="202">
+        <f>$W5*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" s="177">
-      <c r="A6" s="78" t="inlineStr">
-        <is>
-          <t>ALQUEVA</t>
-        </is>
+      <c r="A6" s="78">
+        <f>IF(B6="","",B5)</f>
+        <v/>
       </c>
       <c r="B6" s="79" t="inlineStr">
         <is>
@@ -9690,25 +9967,28 @@
       <c r="G6" s="81" t="n">
         <v>307</v>
       </c>
-      <c r="H6" s="81" t="n">
-        <v>309</v>
+      <c r="H6" s="81">
+        <f>IF(G6="","",G6+2)</f>
+        <v/>
       </c>
       <c r="I6" s="81" t="n">
         <v>296</v>
       </c>
-      <c r="J6" s="81" t="n">
-        <v>298</v>
-      </c>
-      <c r="K6" s="83" t="inlineStr">
-        <is>
-          <t>PORTEL</t>
-        </is>
-      </c>
-      <c r="L6" s="80" t="n">
-        <v>6500</v>
-      </c>
-      <c r="M6" s="81" t="n">
-        <v>298</v>
+      <c r="J6" s="81">
+        <f>IF(I6="","",I6+2)</f>
+        <v/>
+      </c>
+      <c r="K6" s="83">
+        <f>IF(B6="","",B6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="80">
+        <f>IF(C6="","",C6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="81">
+        <f>IF(J6="","",J6)</f>
+        <v/>
       </c>
       <c r="N6" s="80" t="n">
         <v>79</v>
@@ -9716,48 +9996,58 @@
       <c r="O6" s="80" t="n">
         <v>9</v>
       </c>
-      <c r="P6" s="84" t="n">
-        <v>6.835443037974684</v>
+      <c r="P6" s="84">
+        <f>IF(N6="","",O6/N6*60)</f>
+        <v/>
       </c>
       <c r="Q6" s="87" t="n"/>
       <c r="R6" s="87" t="n"/>
       <c r="S6" s="87" t="n"/>
-      <c r="T6" s="202" t="n">
-        <v>1.548046937204772</v>
-      </c>
-      <c r="U6" s="203" t="n">
-        <v>30.92059358675995</v>
-      </c>
-      <c r="W6" s="202" t="n">
-        <v>2.633333333333333</v>
-      </c>
-      <c r="X6" s="202" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="Y6" s="202" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z6" s="202" t="n">
-        <v>10.53333333333333</v>
-      </c>
-      <c r="AA6" s="202" t="n">
-        <v>13.16666666666667</v>
-      </c>
-      <c r="AB6" s="202" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="AC6" s="202" t="n">
-        <v>18.43333333333333</v>
-      </c>
-      <c r="AD6" s="202" t="n">
-        <v>21.06666666666667</v>
+      <c r="T6" s="202">
+        <f>IF(P6="","",Performance!$G$13/60*P6)</f>
+        <v/>
+      </c>
+      <c r="U6" s="203">
+        <f>IF(T6="","",$U$22-SUM($T$3:T6))</f>
+        <v/>
+      </c>
+      <c r="W6" s="202">
+        <f>O6/P6*$W$2</f>
+        <v/>
+      </c>
+      <c r="X6" s="202">
+        <f>$W6*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y6" s="202">
+        <f>$W6*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z6" s="202">
+        <f>$W6*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA6" s="202">
+        <f>$W6*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB6" s="202">
+        <f>$W6*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC6" s="202">
+        <f>$W6*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD6" s="202">
+        <f>$W6*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" s="177">
-      <c r="A7" s="78" t="inlineStr">
-        <is>
-          <t>PORTEL</t>
-        </is>
+      <c r="A7" s="78">
+        <f>IF(B7="","",B6)</f>
+        <v/>
       </c>
       <c r="B7" s="79" t="inlineStr">
         <is>
@@ -9777,23 +10067,28 @@
       <c r="G7" s="81" t="n">
         <v>276</v>
       </c>
-      <c r="H7" s="81" t="n">
-        <v>278</v>
+      <c r="H7" s="81">
+        <f>IF(G7="","",G7+2)</f>
+        <v/>
       </c>
       <c r="I7" s="81" t="n">
         <v>268</v>
       </c>
-      <c r="J7" s="81" t="n">
-        <v>270</v>
-      </c>
-      <c r="K7" s="83" t="inlineStr">
-        <is>
-          <t>VIANA</t>
-        </is>
-      </c>
-      <c r="L7" s="80" t="str"/>
-      <c r="M7" s="81" t="n">
-        <v>270</v>
+      <c r="J7" s="81">
+        <f>IF(I7="","",I7+2)</f>
+        <v/>
+      </c>
+      <c r="K7" s="83">
+        <f>IF(B7="","",B7)</f>
+        <v/>
+      </c>
+      <c r="L7" s="80">
+        <f>IF(C7="","",C7)</f>
+        <v/>
+      </c>
+      <c r="M7" s="81">
+        <f>IF(J7="","",J7)</f>
+        <v/>
       </c>
       <c r="N7" s="80" t="n">
         <v>72</v>
@@ -9801,48 +10096,58 @@
       <c r="O7" s="80" t="n">
         <v>14</v>
       </c>
-      <c r="P7" s="84" t="n">
-        <v>11.66666666666667</v>
+      <c r="P7" s="84">
+        <f>IF(N7="","",O7/N7*60)</f>
+        <v/>
       </c>
       <c r="Q7" s="87" t="n"/>
       <c r="R7" s="87" t="n"/>
       <c r="S7" s="87" t="n"/>
-      <c r="T7" s="202" t="n">
-        <v>2.642191223068639</v>
-      </c>
-      <c r="U7" s="203" t="n">
-        <v>28.27840236369131</v>
-      </c>
-      <c r="W7" s="202" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X7" s="202" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y7" s="202" t="n">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="Z7" s="202" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA7" s="202" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="202" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AC7" s="202" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="AD7" s="202" t="n">
-        <v>19.2</v>
+      <c r="T7" s="202">
+        <f>IF(P7="","",Performance!$G$13/60*P7)</f>
+        <v/>
+      </c>
+      <c r="U7" s="203">
+        <f>IF(T7="","",$U$22-SUM($T$3:T7))</f>
+        <v/>
+      </c>
+      <c r="W7" s="202">
+        <f>O7/P7*$W$2</f>
+        <v/>
+      </c>
+      <c r="X7" s="202">
+        <f>$W7*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y7" s="202">
+        <f>$W7*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z7" s="202">
+        <f>$W7*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA7" s="202">
+        <f>$W7*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB7" s="202">
+        <f>$W7*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC7" s="202">
+        <f>$W7*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD7" s="202">
+        <f>$W7*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" s="177">
-      <c r="A8" s="78" t="inlineStr">
-        <is>
-          <t>VIANA</t>
-        </is>
+      <c r="A8" s="78">
+        <f>IF(B8="","",B7)</f>
+        <v/>
       </c>
       <c r="B8" s="79" t="inlineStr">
         <is>
@@ -9862,23 +10167,28 @@
       <c r="G8" s="81" t="n">
         <v>256</v>
       </c>
-      <c r="H8" s="81" t="n">
-        <v>258</v>
+      <c r="H8" s="81">
+        <f>IF(G8="","",G8+2)</f>
+        <v/>
       </c>
       <c r="I8" s="81" t="n">
         <v>251</v>
       </c>
-      <c r="J8" s="81" t="n">
-        <v>253</v>
-      </c>
-      <c r="K8" s="83" t="inlineStr">
-        <is>
-          <t>TORRÃO</t>
-        </is>
-      </c>
-      <c r="L8" s="80" t="str"/>
-      <c r="M8" s="81" t="n">
-        <v>253</v>
+      <c r="J8" s="81">
+        <f>IF(I8="","",I8+2)</f>
+        <v/>
+      </c>
+      <c r="K8" s="83">
+        <f>IF(B8="","",B8)</f>
+        <v/>
+      </c>
+      <c r="L8" s="80">
+        <f>IF(C8="","",C8)</f>
+        <v/>
+      </c>
+      <c r="M8" s="81">
+        <f>IF(J8="","",J8)</f>
+        <v/>
       </c>
       <c r="N8" s="80" t="n">
         <v>70</v>
@@ -9886,48 +10196,58 @@
       <c r="O8" s="80" t="n">
         <v>11</v>
       </c>
-      <c r="P8" s="84" t="n">
-        <v>9.428571428571429</v>
+      <c r="P8" s="84">
+        <f>IF(N8="","",O8/N8*60)</f>
+        <v/>
       </c>
       <c r="Q8" s="87" t="n"/>
       <c r="R8" s="87" t="n"/>
       <c r="S8" s="87" t="n"/>
-      <c r="T8" s="202" t="n">
-        <v>2.135321886398328</v>
-      </c>
-      <c r="U8" s="203" t="n">
-        <v>26.14308047729298</v>
-      </c>
-      <c r="W8" s="202" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="X8" s="202" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="Y8" s="202" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="202" t="n">
-        <v>9.333333333333334</v>
-      </c>
-      <c r="AA8" s="202" t="n">
-        <v>11.66666666666667</v>
-      </c>
-      <c r="AB8" s="202" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="202" t="n">
-        <v>16.33333333333334</v>
-      </c>
-      <c r="AD8" s="202" t="n">
-        <v>18.66666666666667</v>
+      <c r="T8" s="202">
+        <f>IF(P8="","",Performance!$G$13/60*P8)</f>
+        <v/>
+      </c>
+      <c r="U8" s="203">
+        <f>IF(T8="","",$U$22-SUM($T$3:T8))</f>
+        <v/>
+      </c>
+      <c r="W8" s="202">
+        <f>O8/P8*$W$2</f>
+        <v/>
+      </c>
+      <c r="X8" s="202">
+        <f>$W8*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y8" s="202">
+        <f>$W8*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z8" s="202">
+        <f>$W8*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA8" s="202">
+        <f>$W8*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB8" s="202">
+        <f>$W8*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC8" s="202">
+        <f>$W8*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD8" s="202">
+        <f>$W8*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" s="177">
-      <c r="A9" s="78" t="inlineStr">
-        <is>
-          <t>TORRÃO</t>
-        </is>
+      <c r="A9" s="78">
+        <f>IF(B9="","",B8)</f>
+        <v/>
       </c>
       <c r="B9" s="79" t="inlineStr">
         <is>
@@ -9947,23 +10267,28 @@
       <c r="G9" s="81" t="n">
         <v>289</v>
       </c>
-      <c r="H9" s="81" t="n">
-        <v>291</v>
+      <c r="H9" s="81">
+        <f>IF(G9="","",G9+2)</f>
+        <v/>
       </c>
       <c r="I9" s="81" t="n">
         <v>279</v>
       </c>
-      <c r="J9" s="81" t="n">
-        <v>281</v>
-      </c>
-      <c r="K9" s="83" t="inlineStr">
-        <is>
-          <t>ALCÁCER</t>
-        </is>
-      </c>
-      <c r="L9" s="80" t="str"/>
-      <c r="M9" s="81" t="n">
-        <v>281</v>
+      <c r="J9" s="81">
+        <f>IF(I9="","",I9+2)</f>
+        <v/>
+      </c>
+      <c r="K9" s="83">
+        <f>IF(B9="","",B9)</f>
+        <v/>
+      </c>
+      <c r="L9" s="80">
+        <f>IF(C9="","",C9)</f>
+        <v/>
+      </c>
+      <c r="M9" s="81">
+        <f>IF(J9="","",J9)</f>
+        <v/>
       </c>
       <c r="N9" s="80" t="n">
         <v>74</v>
@@ -9971,48 +10296,58 @@
       <c r="O9" s="80" t="n">
         <v>14</v>
       </c>
-      <c r="P9" s="84" t="n">
-        <v>11.35135135135135</v>
+      <c r="P9" s="84">
+        <f>IF(N9="","",O9/N9*60)</f>
+        <v/>
       </c>
       <c r="Q9" s="87" t="n"/>
       <c r="R9" s="87" t="n"/>
       <c r="S9" s="87" t="n"/>
-      <c r="T9" s="202" t="n">
-        <v>2.570780649472189</v>
-      </c>
-      <c r="U9" s="203" t="n">
-        <v>23.57229982782079</v>
-      </c>
-      <c r="W9" s="202" t="n">
-        <v>2.466666666666666</v>
-      </c>
-      <c r="X9" s="202" t="n">
-        <v>4.933333333333333</v>
-      </c>
-      <c r="Y9" s="202" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="Z9" s="202" t="n">
-        <v>9.866666666666665</v>
-      </c>
-      <c r="AA9" s="202" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="AB9" s="202" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="AC9" s="202" t="n">
-        <v>17.26666666666667</v>
-      </c>
-      <c r="AD9" s="202" t="n">
-        <v>19.73333333333333</v>
+      <c r="T9" s="202">
+        <f>IF(P9="","",Performance!$G$13/60*P9)</f>
+        <v/>
+      </c>
+      <c r="U9" s="203">
+        <f>IF(T9="","",$U$22-SUM($T$3:T9))</f>
+        <v/>
+      </c>
+      <c r="W9" s="202">
+        <f>O9/P9*$W$2</f>
+        <v/>
+      </c>
+      <c r="X9" s="202">
+        <f>$W9*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y9" s="202">
+        <f>$W9*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z9" s="202">
+        <f>$W9*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA9" s="202">
+        <f>$W9*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB9" s="202">
+        <f>$W9*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC9" s="202">
+        <f>$W9*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD9" s="202">
+        <f>$W9*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" s="177">
-      <c r="A10" s="78" t="inlineStr">
-        <is>
-          <t>ALCÁCER</t>
-        </is>
+      <c r="A10" s="78">
+        <f>IF(B10="","",B9)</f>
+        <v/>
       </c>
       <c r="B10" s="79" t="inlineStr">
         <is>
@@ -10032,23 +10367,28 @@
       <c r="G10" s="81" t="n">
         <v>54</v>
       </c>
-      <c r="H10" s="81" t="n">
-        <v>56</v>
+      <c r="H10" s="81">
+        <f>IF(G10="","",G10+2)</f>
+        <v/>
       </c>
       <c r="I10" s="81" t="n">
         <v>55</v>
       </c>
-      <c r="J10" s="81" t="n">
-        <v>57</v>
-      </c>
-      <c r="K10" s="83" t="inlineStr">
-        <is>
-          <t>S. CRIST.</t>
-        </is>
-      </c>
-      <c r="L10" s="80" t="str"/>
-      <c r="M10" s="81" t="n">
-        <v>57</v>
+      <c r="J10" s="81">
+        <f>IF(I10="","",I10+2)</f>
+        <v/>
+      </c>
+      <c r="K10" s="83">
+        <f>IF(B10="","",B10)</f>
+        <v/>
+      </c>
+      <c r="L10" s="80">
+        <f>IF(C10="","",C10)</f>
+        <v/>
+      </c>
+      <c r="M10" s="81">
+        <f>IF(J10="","",J10)</f>
+        <v/>
       </c>
       <c r="N10" s="80" t="n">
         <v>100</v>
@@ -10056,48 +10396,58 @@
       <c r="O10" s="80" t="n">
         <v>12</v>
       </c>
-      <c r="P10" s="84" t="n">
-        <v>7.199999999999999</v>
+      <c r="P10" s="84">
+        <f>IF(N10="","",O10/N10*60)</f>
+        <v/>
       </c>
       <c r="Q10" s="87" t="n"/>
       <c r="R10" s="87" t="n"/>
       <c r="S10" s="87" t="n"/>
-      <c r="T10" s="202" t="n">
-        <v>1.63060944052236</v>
-      </c>
-      <c r="U10" s="203" t="n">
-        <v>21.94169038729843</v>
-      </c>
-      <c r="W10" s="202" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="X10" s="202" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Y10" s="202" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="202" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="AA10" s="202" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="AB10" s="202" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="202" t="n">
-        <v>23.33333333333334</v>
-      </c>
-      <c r="AD10" s="202" t="n">
-        <v>26.66666666666667</v>
+      <c r="T10" s="202">
+        <f>IF(P10="","",Performance!$G$13/60*P10)</f>
+        <v/>
+      </c>
+      <c r="U10" s="203">
+        <f>IF(T10="","",$U$22-SUM($T$3:T10))</f>
+        <v/>
+      </c>
+      <c r="W10" s="202">
+        <f>O10/P10*$W$2</f>
+        <v/>
+      </c>
+      <c r="X10" s="202">
+        <f>$W10*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y10" s="202">
+        <f>$W10*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z10" s="202">
+        <f>$W10*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA10" s="202">
+        <f>$W10*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB10" s="202">
+        <f>$W10*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC10" s="202">
+        <f>$W10*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD10" s="202">
+        <f>$W10*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" s="177">
-      <c r="A11" s="78" t="inlineStr">
-        <is>
-          <t>S. CRIST.</t>
-        </is>
+      <c r="A11" s="78">
+        <f>IF(B11="","",B10)</f>
+        <v/>
       </c>
       <c r="B11" s="79" t="inlineStr">
         <is>
@@ -10117,23 +10467,28 @@
       <c r="G11" s="81" t="n">
         <v>80</v>
       </c>
-      <c r="H11" s="81" t="n">
-        <v>82</v>
+      <c r="H11" s="81">
+        <f>IF(G11="","",G11+2)</f>
+        <v/>
       </c>
       <c r="I11" s="81" t="n">
         <v>86</v>
       </c>
-      <c r="J11" s="81" t="n">
-        <v>88</v>
-      </c>
-      <c r="K11" s="83" t="inlineStr">
-        <is>
-          <t>TOD</t>
-        </is>
-      </c>
-      <c r="L11" s="80" t="str"/>
-      <c r="M11" s="81" t="n">
-        <v>88</v>
+      <c r="J11" s="81">
+        <f>IF(I11="","",I11+2)</f>
+        <v/>
+      </c>
+      <c r="K11" s="83">
+        <f>IF(B11="","",B11)</f>
+        <v/>
+      </c>
+      <c r="L11" s="80">
+        <f>IF(C11="","",C11)</f>
+        <v/>
+      </c>
+      <c r="M11" s="81">
+        <f>IF(J11="","",J11)</f>
+        <v/>
       </c>
       <c r="N11" s="80" t="n">
         <v>98</v>
@@ -10141,48 +10496,58 @@
       <c r="O11" s="80" t="n">
         <v>5</v>
       </c>
-      <c r="P11" s="84" t="n">
-        <v>3.061224489795919</v>
+      <c r="P11" s="84">
+        <f>IF(N11="","",O11/N11*60)</f>
+        <v/>
       </c>
       <c r="Q11" s="87" t="n"/>
       <c r="R11" s="87" t="n"/>
       <c r="S11" s="87" t="n"/>
-      <c r="T11" s="202" t="n">
-        <v>0.6932863267527041</v>
-      </c>
-      <c r="U11" s="203" t="n">
-        <v>21.24840406054572</v>
-      </c>
-      <c r="W11" s="202" t="n">
-        <v>3.266666666666666</v>
-      </c>
-      <c r="X11" s="202" t="n">
-        <v>6.533333333333332</v>
-      </c>
-      <c r="Y11" s="202" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="Z11" s="202" t="n">
-        <v>13.06666666666666</v>
-      </c>
-      <c r="AA11" s="202" t="n">
-        <v>16.33333333333333</v>
-      </c>
-      <c r="AB11" s="202" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AC11" s="202" t="n">
-        <v>22.86666666666666</v>
-      </c>
-      <c r="AD11" s="202" t="n">
-        <v>26.13333333333333</v>
+      <c r="T11" s="202">
+        <f>IF(P11="","",Performance!$G$13/60*P11)</f>
+        <v/>
+      </c>
+      <c r="U11" s="203">
+        <f>IF(T11="","",$U$22-SUM($T$3:T11))</f>
+        <v/>
+      </c>
+      <c r="W11" s="202">
+        <f>O11/P11*$W$2</f>
+        <v/>
+      </c>
+      <c r="X11" s="202">
+        <f>$W11*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y11" s="202">
+        <f>$W11*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z11" s="202">
+        <f>$W11*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA11" s="202">
+        <f>$W11*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB11" s="202">
+        <f>$W11*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC11" s="202">
+        <f>$W11*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD11" s="202">
+        <f>$W11*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" s="177">
-      <c r="A12" s="78" t="inlineStr">
-        <is>
-          <t>TOD</t>
-        </is>
+      <c r="A12" s="78">
+        <f>IF(B12="","",B11)</f>
+        <v/>
       </c>
       <c r="B12" s="79" t="inlineStr">
         <is>
@@ -10204,25 +10569,28 @@
       <c r="G12" s="81" t="n">
         <v>80</v>
       </c>
-      <c r="H12" s="81" t="n">
-        <v>82</v>
+      <c r="H12" s="81">
+        <f>IF(G12="","",G12+2)</f>
+        <v/>
       </c>
       <c r="I12" s="81" t="n">
         <v>85</v>
       </c>
-      <c r="J12" s="81" t="n">
-        <v>87</v>
-      </c>
-      <c r="K12" s="83" t="inlineStr">
-        <is>
-          <t>VALVE</t>
-        </is>
-      </c>
-      <c r="L12" s="80" t="n">
-        <v>2300</v>
-      </c>
-      <c r="M12" s="81" t="n">
-        <v>87</v>
+      <c r="J12" s="81">
+        <f>IF(I12="","",I12+2)</f>
+        <v/>
+      </c>
+      <c r="K12" s="83">
+        <f>IF(B12="","",B12)</f>
+        <v/>
+      </c>
+      <c r="L12" s="80">
+        <f>IF(C12="","",C12)</f>
+        <v/>
+      </c>
+      <c r="M12" s="81">
+        <f>IF(J12="","",J12)</f>
+        <v/>
       </c>
       <c r="N12" s="80" t="n">
         <v>79</v>
@@ -10230,229 +10598,380 @@
       <c r="O12" s="80" t="n">
         <v>9</v>
       </c>
-      <c r="P12" s="84" t="n">
-        <v>6.835443037974684</v>
+      <c r="P12" s="84">
+        <f>IF(N12="","",O12/N12*60)</f>
+        <v/>
       </c>
       <c r="Q12" s="87" t="n"/>
       <c r="R12" s="87" t="n"/>
       <c r="S12" s="87" t="n"/>
-      <c r="T12" s="202" t="n">
-        <v>1.548046937204772</v>
-      </c>
-      <c r="U12" s="203" t="n">
-        <v>19.70035712334095</v>
-      </c>
-      <c r="W12" s="202" t="n">
-        <v>2.633333333333333</v>
-      </c>
-      <c r="X12" s="202" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="Y12" s="202" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z12" s="202" t="n">
-        <v>10.53333333333333</v>
-      </c>
-      <c r="AA12" s="202" t="n">
-        <v>13.16666666666667</v>
-      </c>
-      <c r="AB12" s="202" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="AC12" s="202" t="n">
-        <v>18.43333333333333</v>
-      </c>
-      <c r="AD12" s="202" t="n">
-        <v>21.06666666666667</v>
+      <c r="T12" s="202">
+        <f>IF(P12="","",Performance!$G$13/60*P12)</f>
+        <v/>
+      </c>
+      <c r="U12" s="203">
+        <f>IF(T12="","",$U$22-SUM($T$3:T12))</f>
+        <v/>
+      </c>
+      <c r="W12" s="202">
+        <f>O12/P12*$W$2</f>
+        <v/>
+      </c>
+      <c r="X12" s="202">
+        <f>$W12*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y12" s="202">
+        <f>$W12*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z12" s="202">
+        <f>$W12*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA12" s="202">
+        <f>$W12*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB12" s="202">
+        <f>$W12*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC12" s="202">
+        <f>$W12*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD12" s="202">
+        <f>$W12*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" s="177">
-      <c r="A13" s="78" t="str"/>
+      <c r="A13" s="78">
+        <f>IF(B13="","",B12)</f>
+        <v/>
+      </c>
       <c r="B13" s="79" t="n"/>
       <c r="C13" s="80" t="n"/>
       <c r="D13" s="81" t="n"/>
       <c r="E13" s="82" t="n"/>
       <c r="F13" s="80" t="n"/>
       <c r="G13" s="81" t="n"/>
-      <c r="H13" s="81" t="str"/>
+      <c r="H13" s="81">
+        <f>IF(G13="","",G13+2)</f>
+        <v/>
+      </c>
       <c r="I13" s="81" t="n"/>
-      <c r="J13" s="81" t="str"/>
-      <c r="K13" s="83" t="str"/>
-      <c r="L13" s="80" t="str"/>
-      <c r="M13" s="81" t="str"/>
+      <c r="J13" s="81">
+        <f>IF(I13="","",I13+2)</f>
+        <v/>
+      </c>
+      <c r="K13" s="83">
+        <f>IF(B13="","",B13)</f>
+        <v/>
+      </c>
+      <c r="L13" s="80">
+        <f>IF(C13="","",C13)</f>
+        <v/>
+      </c>
+      <c r="M13" s="81">
+        <f>IF(J13="","",J13)</f>
+        <v/>
+      </c>
       <c r="N13" s="80" t="n"/>
       <c r="O13" s="80" t="n"/>
-      <c r="P13" s="84" t="str"/>
+      <c r="P13" s="84">
+        <f>IF(N13="","",O13/N13*60)</f>
+        <v/>
+      </c>
       <c r="Q13" s="87" t="n"/>
       <c r="R13" s="87" t="n"/>
       <c r="S13" s="87" t="n"/>
-      <c r="T13" s="202" t="str"/>
-      <c r="U13" s="203" t="str"/>
-      <c r="W13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="X13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC13" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD13" s="202" t="e">
-        <v>#VALUE!</v>
+      <c r="T13" s="202">
+        <f>IF(P13="","",Performance!$G$13/60*P13)</f>
+        <v/>
+      </c>
+      <c r="U13" s="203">
+        <f>IF(T13="","",$U$22-SUM($T$3:T13))</f>
+        <v/>
+      </c>
+      <c r="W13" s="202">
+        <f>O13/P13*2</f>
+        <v/>
+      </c>
+      <c r="X13" s="202">
+        <f>$W13*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y13" s="202">
+        <f>$W13*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z13" s="202">
+        <f>$W13*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA13" s="202">
+        <f>$W13*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB13" s="202">
+        <f>$W13*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC13" s="202">
+        <f>$W13*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD13" s="202">
+        <f>$W13*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" s="177">
-      <c r="A14" s="78" t="str"/>
+      <c r="A14" s="78">
+        <f>IF(B14="","",B13)</f>
+        <v/>
+      </c>
       <c r="B14" s="79" t="n"/>
       <c r="C14" s="80" t="n"/>
       <c r="D14" s="81" t="n"/>
       <c r="E14" s="82" t="n"/>
       <c r="F14" s="80" t="n"/>
       <c r="G14" s="81" t="n"/>
-      <c r="H14" s="81" t="str"/>
+      <c r="H14" s="81">
+        <f>IF(G14="","",G14+2)</f>
+        <v/>
+      </c>
       <c r="I14" s="81" t="n"/>
-      <c r="J14" s="81" t="str"/>
-      <c r="K14" s="83" t="str"/>
-      <c r="L14" s="80" t="str"/>
-      <c r="M14" s="81" t="str"/>
+      <c r="J14" s="81">
+        <f>IF(I14="","",I14+2)</f>
+        <v/>
+      </c>
+      <c r="K14" s="83">
+        <f>IF(B14="","",B14)</f>
+        <v/>
+      </c>
+      <c r="L14" s="80">
+        <f>IF(C14="","",C14)</f>
+        <v/>
+      </c>
+      <c r="M14" s="81">
+        <f>IF(J14="","",J14)</f>
+        <v/>
+      </c>
       <c r="N14" s="80" t="n"/>
       <c r="O14" s="80" t="n"/>
-      <c r="P14" s="84" t="str"/>
+      <c r="P14" s="84">
+        <f>IF(N14="","",O14/N14*60)</f>
+        <v/>
+      </c>
       <c r="Q14" s="87" t="n"/>
       <c r="R14" s="87" t="n"/>
       <c r="S14" s="87" t="n"/>
-      <c r="T14" s="202" t="str"/>
-      <c r="U14" s="203" t="str"/>
-      <c r="W14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="X14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC14" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD14" s="202" t="e">
-        <v>#VALUE!</v>
+      <c r="T14" s="202">
+        <f>IF(P14="","",Performance!$G$13/60*P14)</f>
+        <v/>
+      </c>
+      <c r="U14" s="203">
+        <f>IF(T14="","",$U$22-SUM($T$3:T14))</f>
+        <v/>
+      </c>
+      <c r="W14" s="202">
+        <f>O14/P14*$W$2</f>
+        <v/>
+      </c>
+      <c r="X14" s="202">
+        <f>$W14*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y14" s="202">
+        <f>$W14*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z14" s="202">
+        <f>$W14*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA14" s="202">
+        <f>$W14*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB14" s="202">
+        <f>$W14*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC14" s="202">
+        <f>$W14*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD14" s="202">
+        <f>$W14*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" s="177">
-      <c r="A15" s="78" t="str"/>
+      <c r="A15" s="78">
+        <f>IF(B15="","",B14)</f>
+        <v/>
+      </c>
       <c r="B15" s="79" t="n"/>
       <c r="C15" s="80" t="n"/>
       <c r="D15" s="81" t="n"/>
       <c r="E15" s="82" t="n"/>
       <c r="F15" s="80" t="n"/>
       <c r="G15" s="81" t="n"/>
-      <c r="H15" s="81" t="str"/>
+      <c r="H15" s="81">
+        <f>IF(G15="","",G15+2)</f>
+        <v/>
+      </c>
       <c r="I15" s="81" t="n"/>
-      <c r="J15" s="81" t="str"/>
-      <c r="K15" s="83" t="str"/>
-      <c r="L15" s="80" t="str"/>
-      <c r="M15" s="81" t="str"/>
+      <c r="J15" s="81">
+        <f>IF(I15="","",I15+2)</f>
+        <v/>
+      </c>
+      <c r="K15" s="83">
+        <f>IF(B15="","",B15)</f>
+        <v/>
+      </c>
+      <c r="L15" s="80">
+        <f>IF(C15="","",C15)</f>
+        <v/>
+      </c>
+      <c r="M15" s="81">
+        <f>IF(J15="","",J15)</f>
+        <v/>
+      </c>
       <c r="N15" s="80" t="n"/>
       <c r="O15" s="80" t="n"/>
-      <c r="P15" s="84" t="str"/>
+      <c r="P15" s="84">
+        <f>IF(N15="","",O15/N15*60)</f>
+        <v/>
+      </c>
       <c r="Q15" s="87" t="n"/>
       <c r="R15" s="87" t="n"/>
       <c r="S15" s="87" t="n"/>
-      <c r="T15" s="202" t="str"/>
-      <c r="U15" s="203" t="str"/>
-      <c r="W15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="X15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC15" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD15" s="202" t="e">
-        <v>#VALUE!</v>
+      <c r="T15" s="202">
+        <f>IF(P15="","",Performance!$G$13/60*P15)</f>
+        <v/>
+      </c>
+      <c r="U15" s="203">
+        <f>IF(T15="","",$U$22-SUM($T$3:T15))</f>
+        <v/>
+      </c>
+      <c r="W15" s="202">
+        <f>O15/P15*$W$2</f>
+        <v/>
+      </c>
+      <c r="X15" s="202">
+        <f>$W15*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y15" s="202">
+        <f>$W15*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z15" s="202">
+        <f>$W15*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA15" s="202">
+        <f>$W15*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB15" s="202">
+        <f>$W15*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC15" s="202">
+        <f>$W15*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD15" s="202">
+        <f>$W15*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="177" thickBot="1">
-      <c r="A16" s="89" t="str"/>
+      <c r="A16" s="89">
+        <f>IF(B16="","",B15)</f>
+        <v/>
+      </c>
       <c r="B16" s="90" t="n"/>
       <c r="C16" s="91" t="n"/>
       <c r="D16" s="92" t="n"/>
       <c r="E16" s="93" t="n"/>
       <c r="F16" s="91" t="n"/>
       <c r="G16" s="92" t="n"/>
-      <c r="H16" s="92" t="str"/>
+      <c r="H16" s="92">
+        <f>IF(G16="","",G16+2)</f>
+        <v/>
+      </c>
       <c r="I16" s="92" t="n"/>
-      <c r="J16" s="92" t="str"/>
-      <c r="K16" s="94" t="str"/>
-      <c r="L16" s="91" t="str"/>
-      <c r="M16" s="92" t="str"/>
+      <c r="J16" s="92">
+        <f>IF(I16="","",I16+2)</f>
+        <v/>
+      </c>
+      <c r="K16" s="94">
+        <f>IF(B16="","",B16)</f>
+        <v/>
+      </c>
+      <c r="L16" s="91">
+        <f>IF(C16="","",C16)</f>
+        <v/>
+      </c>
+      <c r="M16" s="92">
+        <f>IF(J16="","",J16)</f>
+        <v/>
+      </c>
       <c r="N16" s="91" t="n"/>
       <c r="O16" s="91" t="n"/>
-      <c r="P16" s="95" t="str"/>
+      <c r="P16" s="95">
+        <f>IF(N16="","",O16/N16*60)</f>
+        <v/>
+      </c>
       <c r="Q16" s="96" t="n"/>
       <c r="R16" s="96" t="n"/>
       <c r="S16" s="96" t="n"/>
-      <c r="T16" s="204" t="str"/>
-      <c r="U16" s="205" t="str"/>
-      <c r="W16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="X16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC16" s="202" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD16" s="202" t="e">
-        <v>#VALUE!</v>
+      <c r="T16" s="204">
+        <f>IF(P16="","",Performance!$G$13/60*P16)</f>
+        <v/>
+      </c>
+      <c r="U16" s="205">
+        <f>IF(T16="","",$U$22-SUM($T$3:T16))</f>
+        <v/>
+      </c>
+      <c r="W16" s="202">
+        <f>O16/P16*2</f>
+        <v/>
+      </c>
+      <c r="X16" s="202">
+        <f>$W16*X$2/2</f>
+        <v/>
+      </c>
+      <c r="Y16" s="202">
+        <f>$W16*Y$2/2</f>
+        <v/>
+      </c>
+      <c r="Z16" s="202">
+        <f>$W16*Z$2/2</f>
+        <v/>
+      </c>
+      <c r="AA16" s="202">
+        <f>$W16*AA$2/2</f>
+        <v/>
+      </c>
+      <c r="AB16" s="202">
+        <f>$W16*AB$2/2</f>
+        <v/>
+      </c>
+      <c r="AC16" s="202">
+        <f>$W16*AC$2/2</f>
+        <v/>
+      </c>
+      <c r="AD16" s="202">
+        <f>$W16*AD$2/2</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="177" thickBot="1" thickTop="1">
@@ -10474,11 +10993,13 @@
       <c r="L17" s="196" t="n"/>
       <c r="M17" s="196" t="n"/>
       <c r="N17" s="197" t="n"/>
-      <c r="O17" s="99" t="n">
-        <v>112</v>
-      </c>
-      <c r="P17" s="100" t="n">
-        <v>86.60473167059146</v>
+      <c r="O17" s="99">
+        <f>SUM(O3:O16)</f>
+        <v/>
+      </c>
+      <c r="P17" s="100">
+        <f>SUM(P3:P16)</f>
+        <v/>
       </c>
       <c r="Q17" s="101" t="inlineStr">
         <is>
@@ -10491,8 +11012,9 @@
         </is>
       </c>
       <c r="T17" s="206" t="n"/>
-      <c r="U17" s="207" t="n">
-        <v>19.61367959110726</v>
+      <c r="U17" s="207">
+        <f>SUM(T3:T16)</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="19.25" customHeight="1" s="177">
@@ -10583,8 +11105,9 @@
         </is>
       </c>
       <c r="T18" s="206" t="n"/>
-      <c r="U18" s="208" t="n">
-        <v>6.122251562400802</v>
+      <c r="U18" s="208">
+        <f>MAX(Q19:Q21)</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" s="177">
@@ -10619,19 +11142,21 @@
       <c r="I19" s="70" t="n">
         <v>203</v>
       </c>
-      <c r="J19" s="105" t="n">
-        <v>205</v>
-      </c>
-      <c r="K19" s="72" t="inlineStr">
-        <is>
-          <t>LPBJ</t>
-        </is>
-      </c>
-      <c r="L19" s="69" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M19" s="70" t="n">
-        <v>205</v>
+      <c r="J19" s="105">
+        <f>IF(I19="","",I19+2)</f>
+        <v/>
+      </c>
+      <c r="K19" s="72">
+        <f>IF(B19="","",B19)</f>
+        <v/>
+      </c>
+      <c r="L19" s="69">
+        <f>IF(C19="","",C19)</f>
+        <v/>
+      </c>
+      <c r="M19" s="70">
+        <f>IF(J19="","",J19)</f>
+        <v/>
       </c>
       <c r="N19" s="69" t="n">
         <v>74</v>
@@ -10639,11 +11164,13 @@
       <c r="O19" s="69" t="n">
         <v>29</v>
       </c>
-      <c r="P19" s="84" t="n">
-        <v>23.51351351351351</v>
-      </c>
-      <c r="Q19" s="203" t="n">
-        <v>5.325188488192391</v>
+      <c r="P19" s="84">
+        <f>IF(N19="","",O19/N19*60)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="203">
+        <f>IF(O19="","",Performance!G13/60*P19)</f>
+        <v/>
       </c>
       <c r="R19" s="151" t="inlineStr">
         <is>
@@ -10678,8 +11205,9 @@
       <c r="F20" s="81" t="n">
         <v>349</v>
       </c>
-      <c r="G20" s="81" t="n">
-        <v>351</v>
+      <c r="G20" s="81">
+        <f>IF(F20="","",F20+2)</f>
+        <v/>
       </c>
       <c r="H20" s="80" t="n">
         <v>84</v>
@@ -10687,19 +11215,21 @@
       <c r="I20" s="81" t="n">
         <v>342</v>
       </c>
-      <c r="J20" s="106" t="n">
-        <v>344</v>
-      </c>
-      <c r="K20" s="83" t="inlineStr">
-        <is>
-          <t>LPSO</t>
-        </is>
-      </c>
-      <c r="L20" s="80" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M20" s="81" t="n">
-        <v>344</v>
+      <c r="J20" s="106">
+        <f>IF(I20="","",I20+2)</f>
+        <v/>
+      </c>
+      <c r="K20" s="83">
+        <f>IF(B20="","",B20)</f>
+        <v/>
+      </c>
+      <c r="L20" s="80">
+        <f>IF(C20="","",C20)</f>
+        <v/>
+      </c>
+      <c r="M20" s="81">
+        <f>IF(J20="","",J20)</f>
+        <v/>
       </c>
       <c r="N20" s="80" t="n">
         <v>91</v>
@@ -10707,11 +11237,13 @@
       <c r="O20" s="80" t="n">
         <v>41</v>
       </c>
-      <c r="P20" s="107" t="n">
-        <v>27.03296703296703</v>
-      </c>
-      <c r="Q20" s="203" t="n">
-        <v>6.122251562400802</v>
+      <c r="P20" s="107">
+        <f>IF(N20="","",O20/N20*60)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="203">
+        <f>IF(O20="","",Performance!G13/60*P20)</f>
+        <v/>
       </c>
       <c r="R20" s="151" t="inlineStr">
         <is>
@@ -10719,8 +11251,9 @@
         </is>
       </c>
       <c r="T20" s="206" t="n"/>
-      <c r="U20" s="208" t="n">
-        <v>1.386796557675403</v>
+      <c r="U20" s="208">
+        <f>SUM(U17:U19)*0.05</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1" s="177">
@@ -10730,25 +11263,47 @@
       <c r="D21" s="92" t="n"/>
       <c r="E21" s="91" t="n"/>
       <c r="F21" s="92" t="n"/>
-      <c r="G21" s="92" t="str"/>
+      <c r="G21" s="92">
+        <f>IF(F21="","",F21+2)</f>
+        <v/>
+      </c>
       <c r="H21" s="91" t="n"/>
       <c r="I21" s="92" t="n"/>
-      <c r="J21" s="108" t="str"/>
-      <c r="K21" s="94" t="str"/>
-      <c r="L21" s="91" t="str"/>
-      <c r="M21" s="92" t="str"/>
+      <c r="J21" s="108">
+        <f>IF(I21="","",I21+2)</f>
+        <v/>
+      </c>
+      <c r="K21" s="94">
+        <f>IF(B21="","",B21)</f>
+        <v/>
+      </c>
+      <c r="L21" s="91">
+        <f>IF(C21="","",C21)</f>
+        <v/>
+      </c>
+      <c r="M21" s="92">
+        <f>IF(J21="","",J21)</f>
+        <v/>
+      </c>
       <c r="N21" s="91" t="n"/>
       <c r="O21" s="91" t="n"/>
-      <c r="P21" s="109" t="str"/>
-      <c r="Q21" s="110" t="str"/>
+      <c r="P21" s="109">
+        <f>IF(N21="","",O21/N21*60)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="110">
+        <f>IF(O21="","",14/60*P21)</f>
+        <v/>
+      </c>
       <c r="R21" s="151" t="inlineStr">
         <is>
           <t>45 min. HOLDING</t>
         </is>
       </c>
       <c r="T21" s="206" t="n"/>
-      <c r="U21" s="208" t="n">
-        <v>10.19130900326475</v>
+      <c r="U21" s="208">
+        <f>Performance!G13*0.75</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" s="177">
@@ -10759,8 +11314,9 @@
       </c>
       <c r="S22" s="199" t="n"/>
       <c r="T22" s="201" t="n"/>
-      <c r="U22" s="209" t="n">
-        <v>39.31403671444821</v>
+      <c r="U22" s="209">
+        <f>IF(U17="","",SUM(U17:U21))</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" s="177">
@@ -11090,8 +11646,9 @@
       </c>
     </row>
     <row r="4" ht="8.25" customHeight="1" s="177">
-      <c r="A4" s="221" t="n">
-        <v>44512</v>
+      <c r="A4" s="221">
+        <f>TODAY()</f>
+        <v/>
       </c>
       <c r="B4" s="222" t="n"/>
       <c r="C4" s="222" t="n"/>
@@ -11217,10 +11774,9 @@
       <c r="C9" s="179" t="n"/>
       <c r="D9" s="179" t="n"/>
       <c r="E9" s="182" t="n"/>
-      <c r="G9" s="170" t="inlineStr">
-        <is>
-          <t>CS-ECQ</t>
-        </is>
+      <c r="G9" s="170">
+        <f>VLOOKUP('Mass and Balance Sheet'!J4,'Mass and Balance Sheet'!K4:N7,2,TRUE())</f>
+        <v/>
       </c>
       <c r="H9" s="179" t="n"/>
       <c r="I9" s="182" t="n"/>
@@ -11484,35 +12040,43 @@
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="177">
-      <c r="A26" s="229" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B26" s="230" t="n">
-        <v>7</v>
-      </c>
-      <c r="D26" s="173" t="n">
-        <v>2050</v>
+      <c r="A26" s="229">
+        <f>Performance!C13</f>
+        <v/>
+      </c>
+      <c r="B26" s="230">
+        <f>FC!B1</f>
+        <v/>
+      </c>
+      <c r="D26" s="173">
+        <f>FC!E1</f>
+        <v/>
       </c>
       <c r="E26" s="179" t="n"/>
       <c r="F26" s="179" t="n"/>
       <c r="G26" s="182" t="n"/>
-      <c r="H26" s="118" t="n">
-        <v>0.5058607576623504</v>
-      </c>
-      <c r="I26" s="231" t="n">
-        <v>83.88966021161727</v>
+      <c r="H26" s="118">
+        <f>_xlfn.FORECAST.LINEAR(Performance!C13,FC!E5:E8,FC!A5:A8)</f>
+        <v/>
+      </c>
+      <c r="I26" s="231">
+        <f>Performance!F13</f>
+        <v/>
       </c>
       <c r="J26" s="179" t="n"/>
       <c r="K26" s="182" t="n"/>
-      <c r="L26" s="232" t="n">
-        <v>13.588412004353</v>
+      <c r="L26" s="232">
+        <f>Performance!G13</f>
+        <v/>
       </c>
       <c r="M26" s="182" t="n"/>
-      <c r="O26" s="122" t="n">
-        <v>39.31403671444821</v>
-      </c>
-      <c r="P26" s="121" t="n">
-        <v>0.1205501273148148</v>
+      <c r="O26" s="122">
+        <f>'Navigation Log'!U22</f>
+        <v/>
+      </c>
+      <c r="P26" s="121">
+        <f>O26/L26/24</f>
+        <v/>
       </c>
     </row>
     <row r="27" ht="3" customHeight="1" s="177">
